--- a/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.5305496083026924</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.03976565934848963</v>
       </c>
       <c r="D2">
-        <v>0.125</v>
-      </c>
-      <c r="E2">
-        <v>0.1149999999999949</v>
-      </c>
-      <c r="F2">
-        <v>-0.04999999999999716</v>
+        <v>0.9571410908285998</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0.1647656593484896</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8571410908285912</v>
       </c>
       <c r="D3">
-        <v>-0.1500000000000057</v>
+        <v>-0.2364603479950916</v>
       </c>
       <c r="E3">
-        <v>-0.2499999999999858</v>
-      </c>
-      <c r="F3">
-        <v>0.1250000000000142</v>
-      </c>
-      <c r="G3">
-        <v>-0.2000000000000029</v>
-      </c>
-      <c r="H3">
-        <v>0.7000000000000028</v>
+        <v>-0.3995551687457635</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.007141090828597</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.2114603479951001</v>
       </c>
       <c r="D4">
-        <v>0.1500000000000057</v>
-      </c>
-      <c r="E4">
-        <v>-0.6000000000000227</v>
-      </c>
-      <c r="F4">
-        <v>0.1500000000000057</v>
+        <v>-0.9495551687457606</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.3614603479951058</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.9495551687457606</v>
       </c>
       <c r="D5">
-        <v>0.1500000000000057</v>
+        <v>-0.17426014195253</v>
       </c>
       <c r="E5">
-        <v>-0.9999999999999858</v>
-      </c>
-      <c r="F5">
-        <v>-0.6499999999999915</v>
-      </c>
-      <c r="G5">
-        <v>-0.375</v>
-      </c>
-      <c r="H5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1.099555168745766</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3257398580474842</v>
       </c>
       <c r="D6">
-        <v>-0.1499999999999772</v>
-      </c>
-      <c r="E6">
-        <v>-0.02500000000000571</v>
-      </c>
-      <c r="F6">
-        <v>-0.1999999999999972</v>
+        <v>-0.3999999999999972</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.4757398580474614</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.4499999999999943</v>
       </c>
       <c r="D7">
-        <v>-0.2499999999999943</v>
+        <v>-0.4849193672116456</v>
       </c>
       <c r="E7">
-        <v>-0.1000000000000057</v>
-      </c>
-      <c r="F7">
-        <v>-0.0499999999999943</v>
-      </c>
-      <c r="G7">
-        <v>-0.0999999999999972</v>
-      </c>
-      <c r="H7">
-        <v>-0.04999999999999999</v>
+        <v>-0.5640368792747665</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.3349193672116513</v>
       </c>
       <c r="D8">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
+        <v>-0.4140368792747665</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.4349193672116513</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.5140368792747665</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5140368792747665</v>
+      </c>
+      <c r="C10">
+        <v>-0.1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-0.1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,22 +741,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.3873521384730879</v>
       </c>
       <c r="E13">
-        <v>-0.1</v>
-      </c>
-      <c r="F13">
-        <v>-0.04900000000000382</v>
-      </c>
-      <c r="G13">
-        <v>-0.1399999999999977</v>
-      </c>
-      <c r="H13">
-        <v>-0.1399999999999977</v>
+        <v>0.1947037738205665</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.2873521384730878</v>
       </c>
       <c r="D14">
-        <v>0.05099999999999622</v>
-      </c>
-      <c r="E14">
-        <v>0.06000000000000227</v>
-      </c>
-      <c r="F14">
-        <v>0.06000000000000227</v>
+        <v>0.3947037738205665</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.338352138473084</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.3347037738205642</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-0.2628875639548909</v>
       </c>
       <c r="E15">
-        <v>0.0899999999999892</v>
-      </c>
-      <c r="F15">
-        <v>-0.00999999999999085</v>
-      </c>
-      <c r="G15">
-        <v>0.03999999999999204</v>
-      </c>
-      <c r="H15">
-        <v>0.01975592625156253</v>
+        <v>0.3073027473217849</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.3347037738205642</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.3528875639548801</v>
       </c>
       <c r="D16">
-        <v>-0.09999999999998005</v>
-      </c>
-      <c r="E16">
-        <v>-0.04999999999999716</v>
-      </c>
-      <c r="F16">
-        <v>-0.07024407374842667</v>
+        <v>0.2173027473217956</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.2528875639549</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2673027473217928</v>
       </c>
       <c r="D17">
-        <v>-0.02024407374842951</v>
+        <v>-0.1228511177569516</v>
       </c>
       <c r="E17">
-        <v>-0.1753723183093996</v>
-      </c>
-      <c r="F17">
-        <v>1.4210854715202E-14</v>
-      </c>
-      <c r="G17">
-        <v>-0.1500000000000057</v>
-      </c>
-      <c r="H17">
-        <v>-0.1000000000000228</v>
+        <v>-0.09781546156615673</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.2875468210702223</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.02714888224305406</v>
       </c>
       <c r="D18">
-        <v>0.1500000000000199</v>
+        <v>-0.007864866245981317</v>
       </c>
       <c r="E18">
-        <v>-0.05005105262623027</v>
+        <v>0.2384253617026957</v>
       </c>
       <c r="F18">
-        <v>-0.01004940467984738</v>
-      </c>
-      <c r="G18">
-        <v>0.04317739719662939</v>
-      </c>
-      <c r="H18">
-        <v>-0.05542271511929181</v>
-      </c>
-      <c r="I18">
-        <v>-0.03090178358826284</v>
-      </c>
-      <c r="J18">
-        <v>-0.00637778025330249</v>
+        <v>-0.5443652331533144</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.1228511177569658</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.002184538433866068</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2438480768220188</v>
       </c>
       <c r="E19">
-        <v>0.04999999999999716</v>
-      </c>
-      <c r="F19">
-        <v>-0.04999999999996874</v>
-      </c>
-      <c r="G19">
-        <v>-0.02500000000000574</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>-0.5379874529000119</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,30 +885,24 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.002184538433866068</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.143848076821996</v>
       </c>
       <c r="D20">
-        <v>-0.1499999999999915</v>
+        <v>-0.6379874529000347</v>
       </c>
       <c r="E20">
-        <v>-0.1250000000000285</v>
+        <v>0.4986065680092508</v>
       </c>
       <c r="F20">
-        <v>-0.1000000000000228</v>
+        <v>-0.1431994051349222</v>
       </c>
       <c r="G20">
-        <v>-0.1000000000000228</v>
+        <v>-0.2235615165121772</v>
       </c>
       <c r="H20">
-        <v>-0.1000000000000228</v>
-      </c>
-      <c r="I20">
-        <v>-0.1000000000000228</v>
-      </c>
-      <c r="J20">
         <v>-1.709743457922741E-14</v>
       </c>
     </row>
@@ -1058,24 +911,21 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.2938480768219875</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.5579874529000222</v>
       </c>
       <c r="D21">
-        <v>-0.02000000000001018</v>
+        <v>0.5786065680092634</v>
       </c>
       <c r="E21">
-        <v>-0.02000000000001018</v>
+        <v>-0.06319940513490957</v>
       </c>
       <c r="F21">
-        <v>-0.02000000000001018</v>
+        <v>-0.1435615165121646</v>
       </c>
       <c r="G21">
-        <v>-0.02000000000001018</v>
-      </c>
-      <c r="H21">
         <v>0.07999999999999552</v>
       </c>
     </row>
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.5379874529000119</v>
       </c>
       <c r="C22">
-        <v>0.04999999999998289</v>
+        <v>0.6486065680092565</v>
       </c>
       <c r="D22">
-        <v>0.0999999999999801</v>
+        <v>0.05680059486508071</v>
       </c>
       <c r="E22">
-        <v>0.0999999999999801</v>
+        <v>-0.02356151651217431</v>
       </c>
       <c r="F22">
         <v>0.1999999999999858</v>
       </c>
       <c r="G22">
-        <v>-0.09000000000000347</v>
+        <v>0.754793450031272</v>
       </c>
       <c r="H22">
-        <v>0.7499999999999886</v>
+        <v>-0.7500000000000113</v>
       </c>
       <c r="I22">
-        <v>0.3500000000000227</v>
+        <v>-0.3371780294474718</v>
       </c>
       <c r="J22">
-        <v>0.3100000000000022</v>
+        <v>0.3841681690171156</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.5986065680092736</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.04319940513489939</v>
       </c>
       <c r="D23">
-        <v>0.03999999999999204</v>
+        <v>-0.08356151651216237</v>
       </c>
       <c r="E23">
         <v>0.1000000000000057</v>
       </c>
       <c r="F23">
-        <v>0.01000000000001933</v>
+        <v>0.8547934500312948</v>
       </c>
       <c r="G23">
-        <v>0.7200000000000017</v>
+        <v>-0.7799999999999983</v>
       </c>
       <c r="H23">
-        <v>0.3200000000000358</v>
+        <v>-0.3671780294474587</v>
       </c>
       <c r="I23">
-        <v>0.2800000000000153</v>
+        <v>0.3541681690171288</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.04319940513489939</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.1235615165121544</v>
       </c>
       <c r="D24">
         <v>0.1000000000000057</v>
       </c>
       <c r="E24">
-        <v>0.05000000000001137</v>
+        <v>0.8947934500312869</v>
       </c>
       <c r="F24">
-        <v>0.7799999999999898</v>
+        <v>-0.7200000000000102</v>
       </c>
       <c r="G24">
-        <v>0.3000000000000398</v>
+        <v>-0.3871780294474547</v>
       </c>
       <c r="H24">
-        <v>0.2600000000000193</v>
+        <v>0.3341681690171328</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.1235615165121544</v>
       </c>
       <c r="C25">
         <v>0.1000000000000057</v>
       </c>
       <c r="D25">
-        <v>0.04000000000000625</v>
+        <v>0.8847934500312817</v>
       </c>
       <c r="E25">
-        <v>0.7499999999999886</v>
+        <v>-0.7500000000000113</v>
       </c>
       <c r="F25">
-        <v>0.3000000000000398</v>
+        <v>-0.3871780294474547</v>
       </c>
       <c r="G25">
-        <v>0.1400000000000005</v>
+        <v>0.214168169017114</v>
       </c>
       <c r="H25">
-        <v>0.3449999999999704</v>
+        <v>-0.2151731949465443</v>
       </c>
       <c r="I25">
-        <v>11.04500000000001</v>
+        <v>3.445000000000005</v>
       </c>
       <c r="J25">
-        <v>-7.004999999999995</v>
+        <v>11.16206676560194</v>
       </c>
       <c r="K25">
-        <v>1.045000000000002</v>
+        <v>-10.57102434548657</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1209,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.03999999999999204</v>
+        <v>0.8047934500312834</v>
       </c>
       <c r="D26">
-        <v>0.7</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="E26">
-        <v>0.3000000000000341</v>
+        <v>-0.3871780294474604</v>
       </c>
       <c r="F26">
-        <v>0.1600000000000136</v>
+        <v>0.2341681690171271</v>
       </c>
       <c r="G26">
-        <v>0.3999999999999659</v>
+        <v>-0.1601731949465488</v>
       </c>
       <c r="H26">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
       <c r="I26">
-        <v>-6.95</v>
+        <v>11.21706676560194</v>
       </c>
       <c r="J26">
-        <v>1.099999999999997</v>
+        <v>-10.51602434548657</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.8447934500312755</v>
       </c>
       <c r="C27">
-        <v>0.3999999999999943</v>
+        <v>-1.100000000000006</v>
       </c>
       <c r="D27">
-        <v>0.200000000000017</v>
+        <v>-0.4871780294474775</v>
       </c>
       <c r="E27">
-        <v>0.1599999999999965</v>
+        <v>0.23416816901711</v>
       </c>
       <c r="F27">
-        <v>0.3999999999999488</v>
+        <v>-0.1601731949465659</v>
       </c>
       <c r="G27">
-        <v>11.09999999999998</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="H27">
-        <v>-6.950000000000017</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="I27">
-        <v>1.09999999999998</v>
+        <v>-10.51602434548659</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C28">
-        <v>0.2000000000000341</v>
+        <v>-0.4871780294474604</v>
       </c>
       <c r="D28">
-        <v>0.1600000000000136</v>
+        <v>0.2341681690171271</v>
       </c>
       <c r="E28">
-        <v>0.3999999999999659</v>
+        <v>-0.1601731949465488</v>
       </c>
       <c r="F28">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
       <c r="G28">
-        <v>-6.95</v>
+        <v>11.21706676560194</v>
       </c>
       <c r="H28">
-        <v>1.099999999999997</v>
+        <v>-10.51602434548657</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.6871780294474945</v>
       </c>
       <c r="C29">
-        <v>0.06000000000001637</v>
+        <v>0.1341681690171299</v>
       </c>
       <c r="D29">
-        <v>0.2999999999999687</v>
+        <v>-0.260173194946546</v>
       </c>
       <c r="E29">
-        <v>11.09999999999998</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="F29">
-        <v>-6.950000000000017</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="G29">
-        <v>1.159999999999997</v>
+        <v>-10.45602434548657</v>
       </c>
       <c r="H29">
-        <v>2.760000000000006</v>
+        <v>3.689792626865739</v>
       </c>
       <c r="I29">
-        <v>-3.180874220397811</v>
+        <v>5.656794673020016</v>
       </c>
       <c r="J29">
-        <v>-6.100000000000023</v>
+        <v>-2.932891992481572</v>
       </c>
       <c r="K29">
-        <v>1.399999999999977</v>
+        <v>-5.907106464233138</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.07416816901711348</v>
       </c>
       <c r="C30">
-        <v>0.3999999999999488</v>
+        <v>-0.1601731949465659</v>
       </c>
       <c r="D30">
-        <v>11.04900000000001</v>
+        <v>3.44900000000001</v>
       </c>
       <c r="E30">
-        <v>-7.000999999999991</v>
+        <v>11.16606676560195</v>
       </c>
       <c r="F30">
-        <v>1.09999999999998</v>
+        <v>-10.51602434548659</v>
       </c>
       <c r="G30">
-        <v>2.940000000000012</v>
+        <v>3.869792626865745</v>
       </c>
       <c r="H30">
-        <v>-3.040874220397796</v>
+        <v>5.796794673020031</v>
       </c>
       <c r="I30">
-        <v>-6.060000000000002</v>
+        <v>-2.892891992481552</v>
       </c>
       <c r="J30">
-        <v>1.439999999999998</v>
+        <v>-5.867106464233117</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-0.5601731949465147</v>
       </c>
       <c r="C31">
-        <v>3.800000000000001</v>
+        <v>-3.8</v>
       </c>
       <c r="D31">
-        <v>-3.950000000000003</v>
+        <v>14.21706676560194</v>
       </c>
       <c r="E31">
-        <v>3.199999999999974</v>
+        <v>-8.416024345486592</v>
       </c>
       <c r="F31">
-        <v>4.800000000000026</v>
+        <v>5.729792626865759</v>
       </c>
       <c r="G31">
-        <v>-1.880874220397814</v>
+        <v>6.956794673020013</v>
       </c>
       <c r="H31">
-        <v>-6.060496632156315</v>
+        <v>-2.893388624637865</v>
       </c>
       <c r="I31">
-        <v>1.439505048221633</v>
+        <v>-5.867601416011482</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-7.600000000000001</v>
       </c>
       <c r="C32">
-        <v>0.9499999999999993</v>
+        <v>19.11706676560194</v>
       </c>
       <c r="D32">
-        <v>3.799999999999997</v>
+        <v>-7.81602434548657</v>
       </c>
       <c r="E32">
-        <v>3.200000000000006</v>
+        <v>4.129792626865739</v>
       </c>
       <c r="F32">
-        <v>-2.480874220397794</v>
+        <v>6.356794673020033</v>
       </c>
       <c r="G32">
-        <v>-6.000000000000005</v>
+        <v>-2.832891992481555</v>
       </c>
       <c r="H32">
-        <v>1.499999999999994</v>
+        <v>-5.80710646423312</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>18.16706676560194</v>
       </c>
       <c r="C33">
-        <v>3.239999999999995</v>
+        <v>-8.376024345486572</v>
       </c>
       <c r="D33">
-        <v>3.099999999999995</v>
+        <v>4.029792626865728</v>
       </c>
       <c r="E33">
-        <v>-2.580874220397802</v>
+        <v>6.256794673020025</v>
       </c>
       <c r="F33">
-        <v>-6</v>
+        <v>-2.832891992481549</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
+        <v>-5.807106464233115</v>
       </c>
       <c r="H33">
-        <v>0.01905326533243112</v>
+        <v>2.190717317831428</v>
       </c>
       <c r="I33">
-        <v>-1.100000000000008</v>
+        <v>0.5746947653272656</v>
       </c>
       <c r="J33">
-        <v>0.5889999999999986</v>
+        <v>-0.3780328061469476</v>
       </c>
       <c r="K33">
-        <v>0.9399966213670581</v>
+        <v>-0.5979284922632784</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-11.61602434548657</v>
       </c>
       <c r="C34">
-        <v>2.400000000000006</v>
+        <v>3.329792626865739</v>
       </c>
       <c r="D34">
-        <v>-0.3808742203977999</v>
+        <v>8.456794673020028</v>
       </c>
       <c r="E34">
-        <v>-5.500000000000014</v>
+        <v>-2.332891992481564</v>
       </c>
       <c r="F34">
-        <v>1.739999999999995</v>
+        <v>-5.56710646423312</v>
       </c>
       <c r="G34">
-        <v>0.01905326533243112</v>
+        <v>2.190717317831428</v>
       </c>
       <c r="H34">
-        <v>-1.100000000000008</v>
+        <v>0.5746947653272656</v>
       </c>
       <c r="I34">
-        <v>0.5889999999999986</v>
+        <v>-0.3780328061469476</v>
       </c>
       <c r="J34">
-        <v>0.9399966213670581</v>
+        <v>-0.5979284922632784</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.9297926268657331</v>
       </c>
       <c r="C35">
-        <v>-0.1808742203977967</v>
+        <v>8.65679467302003</v>
       </c>
       <c r="D35">
-        <v>-1.799999999999996</v>
+        <v>1.367108007518454</v>
       </c>
       <c r="E35">
-        <v>2.899999999999991</v>
+        <v>-4.407106464233124</v>
       </c>
       <c r="F35">
-        <v>0.2492719319386225</v>
+        <v>2.420935984437619</v>
       </c>
       <c r="G35">
-        <v>-0.9737852191201879</v>
+        <v>0.700909546207086</v>
       </c>
       <c r="H35">
-        <v>0.606471745326175</v>
+        <v>-0.3605610608207712</v>
       </c>
       <c r="I35">
-        <v>0.9261096476221696</v>
+        <v>-0.6118154660081669</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>8.837668893417828</v>
       </c>
       <c r="C36">
-        <v>0.2999999999999829</v>
+        <v>3.467108007518434</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>-3.807106464233115</v>
       </c>
       <c r="E36">
-        <v>0.1790532653324277</v>
+        <v>2.350717317831424</v>
       </c>
       <c r="F36">
-        <v>-1.04000000000002</v>
+        <v>0.6346947653272537</v>
       </c>
       <c r="G36">
-        <v>0.6233946884993031</v>
+        <v>-0.3436381176476431</v>
       </c>
       <c r="H36">
-        <v>0.8865060824304152</v>
+        <v>-0.6514190311999213</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.167108007518451</v>
       </c>
       <c r="C37">
-        <v>3.700000000000003</v>
+        <v>-3.607106464233112</v>
       </c>
       <c r="D37">
-        <v>0.4790532653324249</v>
+        <v>2.650717317831421</v>
       </c>
       <c r="E37">
-        <v>-0.8400000000000174</v>
+        <v>0.8346947653272565</v>
       </c>
       <c r="F37">
-        <v>0.7489999999999952</v>
+        <v>-0.218032806146951</v>
       </c>
       <c r="G37">
-        <v>0.9999966213670461</v>
+        <v>-0.5379284922632903</v>
       </c>
       <c r="H37">
-        <v>0.9399999999999977</v>
+        <v>1.203932912058647</v>
       </c>
       <c r="I37">
-        <v>0.4510000000000076</v>
+        <v>1.429861316022425</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.1526454189713746</v>
       </c>
       <c r="K37">
-        <v>0.07999999999999828</v>
+        <v>0.4656763841019966</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-7.307106464233115</v>
       </c>
       <c r="C38">
-        <v>-1.820946734667573</v>
+        <v>0.350717317831424</v>
       </c>
       <c r="D38">
-        <v>2.959999999999994</v>
+        <v>4.634694765327268</v>
       </c>
       <c r="E38">
-        <v>2.599000000000004</v>
+        <v>1.631967193853058</v>
       </c>
       <c r="F38">
-        <v>1.019996621367071</v>
+        <v>-0.5179284922632659</v>
       </c>
       <c r="G38">
-        <v>1.090000000000003</v>
+        <v>1.353932912058653</v>
       </c>
       <c r="H38">
-        <v>0.6010000000000133</v>
+        <v>1.579861316022431</v>
       </c>
       <c r="I38">
-        <v>0.04999999999999721</v>
+        <v>0.2026454189713718</v>
       </c>
       <c r="J38">
-        <v>0.1299999999999955</v>
+        <v>0.5156763841019938</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.171664052498997</v>
       </c>
       <c r="C39">
-        <v>0.04999999999999694</v>
+        <v>1.724694765327271</v>
       </c>
       <c r="D39">
-        <v>1.322955701213346</v>
+        <v>0.3559228950663997</v>
       </c>
       <c r="E39">
-        <v>1.599996621367054</v>
+        <v>0.06207150773671799</v>
       </c>
       <c r="F39">
-        <v>1.709999999999994</v>
+        <v>1.973932912058643</v>
       </c>
       <c r="G39">
-        <v>1.281000000000006</v>
+        <v>2.259861316022423</v>
       </c>
       <c r="H39">
-        <v>0.4799999999999898</v>
+        <v>0.6326454189713644</v>
       </c>
       <c r="I39">
-        <v>0.2999999999999972</v>
+        <v>0.6856763841019955</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1.674694765327274</v>
       </c>
       <c r="C40">
-        <v>1.349000000000004</v>
+        <v>0.3819671938530578</v>
       </c>
       <c r="D40">
-        <v>1.349996621367055</v>
+        <v>-0.1879284922632818</v>
       </c>
       <c r="E40">
-        <v>1.439999999999984</v>
+        <v>1.703932912058633</v>
       </c>
       <c r="F40">
-        <v>0.8509999999999991</v>
+        <v>1.829861316022416</v>
       </c>
       <c r="G40">
-        <v>0.3999999999999915</v>
+        <v>0.5526454189713661</v>
       </c>
       <c r="H40">
-        <v>0.230000000000004</v>
+        <v>0.6156763841020023</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.9670328061469462</v>
       </c>
       <c r="C41">
-        <v>-0.1400033786329402</v>
+        <v>-1.677928492263277</v>
       </c>
       <c r="D41">
-        <v>-0.6000000000000081</v>
+        <v>-0.336067087941359</v>
       </c>
       <c r="E41">
-        <v>-0.1490000000000009</v>
+        <v>0.8298613160224164</v>
       </c>
       <c r="F41">
-        <v>0.04999999999999721</v>
+        <v>0.2026454189713718</v>
       </c>
       <c r="G41">
-        <v>0.3799999999999813</v>
+        <v>0.7656763841019796</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.3632612702442088</v>
       </c>
       <c r="I41">
-        <v>0.5999999999999943</v>
+        <v>1.014894517653033</v>
       </c>
       <c r="J41">
-        <v>0.5</v>
+        <v>0.8219948986110523</v>
       </c>
       <c r="K41">
-        <v>0.2799984123704178</v>
+        <v>0.3112534500261574</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.537925113630336</v>
       </c>
       <c r="C42">
-        <v>-0.2100999999999971</v>
+        <v>0.05383291205865204</v>
       </c>
       <c r="D42">
-        <v>-0.07899999999999352</v>
+        <v>0.8998613160224238</v>
       </c>
       <c r="E42">
-        <v>0.3400000000000035</v>
+        <v>0.492645418971378</v>
       </c>
       <c r="F42">
-        <v>0.4200000000000018</v>
+        <v>0.805676384102</v>
       </c>
       <c r="G42">
-        <v>0.3999999999999915</v>
+        <v>0.2632612702442003</v>
       </c>
       <c r="H42">
-        <v>0.2999999999999829</v>
+        <v>0.7148945176530219</v>
       </c>
       <c r="I42">
-        <v>0.1999999999999886</v>
+        <v>0.5219948986110409</v>
       </c>
       <c r="J42">
-        <v>-0.08000158762958157</v>
+        <v>-0.04874654997384201</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2639329120586491</v>
       </c>
       <c r="C43">
-        <v>0.1910000000000025</v>
+        <v>1.16986131602242</v>
       </c>
       <c r="D43">
-        <v>0.2000000000000029</v>
+        <v>0.3526454189713775</v>
       </c>
       <c r="E43">
-        <v>0.4799999999999898</v>
+        <v>0.8656763841019881</v>
       </c>
       <c r="F43">
-        <v>0.3999999999999915</v>
+        <v>0.2632612702442003</v>
       </c>
       <c r="G43">
-        <v>0.3300000000000125</v>
+        <v>0.7448945176530515</v>
       </c>
       <c r="H43">
-        <v>0.1400000000000006</v>
+        <v>0.4619948986110529</v>
       </c>
       <c r="I43">
-        <v>-0.1200015876295737</v>
+        <v>-0.08874654997383413</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.9788613160224173</v>
       </c>
       <c r="C44">
-        <v>0.3490000000000038</v>
+        <v>0.5016454189713784</v>
       </c>
       <c r="D44">
-        <v>0.4799999999999898</v>
+        <v>0.8656763841019881</v>
       </c>
       <c r="E44">
-        <v>0.5490000000000208</v>
+        <v>0.4122612702442296</v>
       </c>
       <c r="F44">
-        <v>0.6490000000000151</v>
+        <v>1.063894517653054</v>
       </c>
       <c r="G44">
-        <v>0.4490000000000123</v>
+        <v>0.7709948986110646</v>
       </c>
       <c r="H44">
-        <v>0.1289984123704358</v>
+        <v>0.1602534500261754</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.1526454189713746</v>
       </c>
       <c r="C45">
-        <v>0.3799999999999813</v>
+        <v>0.7656763841019796</v>
       </c>
       <c r="D45">
-        <v>0.3000000000000114</v>
+        <v>0.1632612702442202</v>
       </c>
       <c r="E45">
-        <v>0.5999999999999943</v>
+        <v>1.014894517653033</v>
       </c>
       <c r="F45">
-        <v>0.5150000000000148</v>
+        <v>0.8369948986110671</v>
       </c>
       <c r="G45">
-        <v>0.1799984123704093</v>
+        <v>0.2112534500261489</v>
       </c>
       <c r="H45">
-        <v>0.400002285065284</v>
+        <v>0.416654182623347</v>
       </c>
       <c r="I45">
-        <v>0.0999965580756878</v>
+        <v>-0.1898317593399668</v>
       </c>
       <c r="J45">
-        <v>0.1600000000000107</v>
+        <v>0.1452723979283945</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.3856763841019983</v>
       </c>
       <c r="C46">
-        <v>0.1999999999999886</v>
+        <v>0.06326127024419739</v>
       </c>
       <c r="D46">
-        <v>0.4000000000000057</v>
+        <v>0.8148945176530447</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>0.8219948986110523</v>
       </c>
       <c r="F46">
-        <v>0.2799984123704178</v>
+        <v>0.3112534500261574</v>
       </c>
       <c r="G46">
-        <v>0.400002285065284</v>
+        <v>0.416654182623347</v>
       </c>
       <c r="H46">
-        <v>0.1999965580757106</v>
+        <v>-0.08983175933994403</v>
       </c>
       <c r="I46">
-        <v>0.2599999999999908</v>
+        <v>0.2452723979283746</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.1367387297557912</v>
       </c>
       <c r="C47">
-        <v>0.4000000000000057</v>
+        <v>0.8148945176530447</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.8219948986110523</v>
       </c>
       <c r="E47">
-        <v>0.2799984123704178</v>
+        <v>0.3112534500261574</v>
       </c>
       <c r="F47">
-        <v>0.400002285065284</v>
+        <v>0.416654182623347</v>
       </c>
       <c r="G47">
-        <v>0.1999965580757106</v>
+        <v>-0.08983175933994403</v>
       </c>
       <c r="H47">
-        <v>0.2599999999999908</v>
+        <v>0.2452723979283746</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.414894517653039</v>
       </c>
       <c r="C48">
-        <v>0.349000000000018</v>
+        <v>0.6709948986110703</v>
       </c>
       <c r="D48">
-        <v>0.1489984123704318</v>
+        <v>0.1802534500261714</v>
       </c>
       <c r="E48">
-        <v>0.4510021850653061</v>
+        <v>0.467654082623369</v>
       </c>
       <c r="F48">
-        <v>0.3599965580757072</v>
+        <v>0.07016824066005256</v>
       </c>
       <c r="G48">
-        <v>0.4599999900000142</v>
+        <v>0.445272387928398</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.3219948986110523</v>
       </c>
       <c r="C49">
-        <v>-0.02000158762959359</v>
+        <v>0.01125345002614597</v>
       </c>
       <c r="D49">
-        <v>0.400002285065284</v>
+        <v>0.416654182623347</v>
       </c>
       <c r="E49">
-        <v>0.3999965580756992</v>
+        <v>0.1101682406600446</v>
       </c>
       <c r="F49">
-        <v>0.4599999999999937</v>
+        <v>0.4452723979283775</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.03125503765573956</v>
       </c>
       <c r="C50">
-        <v>0.2000022850652811</v>
+        <v>0.2166541826233441</v>
       </c>
       <c r="D50">
-        <v>0.05999655807569582</v>
+        <v>-0.2298317593399588</v>
       </c>
       <c r="E50">
-        <v>0.1400000000000148</v>
+        <v>0.1252723979283985</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.01665189755806296</v>
       </c>
       <c r="C51">
-        <v>0.03999655807569982</v>
+        <v>-0.2498317593399548</v>
       </c>
       <c r="D51">
-        <v>0.1899999999999978</v>
+        <v>0.1752723979283815</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.2898283174156546</v>
       </c>
       <c r="C52">
-        <v>0.06000000000000227</v>
+        <v>0.045272397928386</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-0.01472760207161627</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.5305496083026924</v>
+        <v>1.030789299073177</v>
       </c>
       <c r="C2">
-        <v>-0.03976565934848963</v>
+        <v>-0.06476565934849532</v>
       </c>
       <c r="D2">
-        <v>0.9571410908285998</v>
+        <v>0.8821410908285969</v>
+      </c>
+      <c r="E2">
+        <v>0.05884063127921024</v>
+      </c>
+      <c r="F2">
+        <v>0.6143890380460846</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.1647656593484896</v>
+        <v>0.7571410908285969</v>
       </c>
       <c r="C3">
-        <v>0.8571410908285912</v>
+        <v>-0.0561593687207847</v>
       </c>
       <c r="D3">
-        <v>-0.2364603479950916</v>
+        <v>0.5143890380460761</v>
       </c>
       <c r="E3">
-        <v>-0.3995551687457635</v>
+        <v>-0.2114603479951001</v>
+      </c>
+      <c r="F3">
+        <v>-0.3745551687457578</v>
+      </c>
+      <c r="G3">
+        <v>1.084360280688273</v>
+      </c>
+      <c r="H3">
+        <v>0.3757398580474813</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.007141090828597</v>
+        <v>0.6643890380460817</v>
       </c>
       <c r="C4">
-        <v>-0.2114603479951001</v>
+        <v>0.03853965200488568</v>
       </c>
       <c r="D4">
-        <v>-0.9495551687457606</v>
+        <v>-0.3495551687457663</v>
+      </c>
+      <c r="E4">
+        <v>0.6843602806882529</v>
+      </c>
+      <c r="F4">
+        <v>-0.1742601419525158</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.3614603479951058</v>
+        <v>-0.499555168745772</v>
       </c>
       <c r="C5">
-        <v>-0.9495551687457606</v>
+        <v>1.284360280688276</v>
       </c>
       <c r="D5">
-        <v>-0.17426014195253</v>
+        <v>-0.1742601419525158</v>
       </c>
       <c r="E5">
-        <v>-0.6</v>
+        <v>0.3215943001740271</v>
+      </c>
+      <c r="F5">
+        <v>-0.9500000000000085</v>
+      </c>
+      <c r="G5">
+        <v>-0.5499999999999915</v>
+      </c>
+      <c r="H5">
+        <v>-0.6349193672116513</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.099555168745766</v>
+        <v>-0.3242601419525215</v>
       </c>
       <c r="C6">
-        <v>0.3257398580474842</v>
+        <v>1.321594300174013</v>
       </c>
       <c r="D6">
-        <v>-0.3999999999999972</v>
+        <v>-0.4499999999999943</v>
+      </c>
+      <c r="E6">
+        <v>-0.1999999999999972</v>
+      </c>
+      <c r="F6">
+        <v>-0.4349193672116485</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4757398580474614</v>
+        <v>-0.3000000000000171</v>
       </c>
       <c r="C7">
-        <v>-0.4499999999999943</v>
+        <v>-0.1749999999999915</v>
       </c>
       <c r="D7">
         <v>-0.4849193672116456</v>
       </c>
       <c r="E7">
-        <v>-0.5640368792747665</v>
+        <v>-0.3000000000000057</v>
+      </c>
+      <c r="F7">
+        <v>0.7472483967898285</v>
+      </c>
+      <c r="G7">
+        <v>-0.6140368792747637</v>
+      </c>
+      <c r="H7">
+        <v>0.4512463990342326</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2349193672116513</v>
+      </c>
+      <c r="C8">
         <v>-0.2</v>
       </c>
-      <c r="C8">
-        <v>-0.3349193672116513</v>
-      </c>
       <c r="D8">
+        <v>0.8972483967898228</v>
+      </c>
+      <c r="E8">
         <v>-0.4140368792747665</v>
+      </c>
+      <c r="F8">
+        <v>0.6012463990342326</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.4349193672116513</v>
+        <v>0.7972483967898227</v>
       </c>
       <c r="C9">
         <v>-0.5140368792747665</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5012463990342326</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.840329042122363</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5140368792747665</v>
+        <v>0.5012463990342326</v>
       </c>
       <c r="C10">
         <v>-0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.640329042122363</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
+        <v>0.7403290421223629</v>
+      </c>
+      <c r="E11">
         <v>-0.4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.6963573102740611</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2</v>
+        <v>0.440329042122363</v>
       </c>
       <c r="C12">
         <v>-0.6000000000000001</v>
       </c>
       <c r="D12">
-        <v>-0.3</v>
+        <v>-0.4</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.5963573102740611</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.6000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="C13">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
+        <v>0.5963573102740611</v>
+      </c>
+      <c r="E13">
         <v>-0.3873521384730879</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1947037738205665</v>
+      </c>
+      <c r="G13">
+        <v>-0.4267133658511682</v>
+      </c>
+      <c r="H13">
+        <v>-0.4028875639548886</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3</v>
+        <v>0.5963573102740611</v>
       </c>
       <c r="C14">
         <v>-0.2873521384730878</v>
       </c>
       <c r="D14">
-        <v>0.3947037738205665</v>
+        <v>0.2947037738205665</v>
+      </c>
+      <c r="E14">
+        <v>-0.2267133658511682</v>
+      </c>
+      <c r="F14">
+        <v>-0.2028875639548886</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.338352138473084</v>
+        <v>0.2437037738205703</v>
       </c>
       <c r="C15">
-        <v>0.3347037738205642</v>
+        <v>-0.2867133658511705</v>
       </c>
       <c r="D15">
         <v>-0.2628875639548909</v>
       </c>
       <c r="E15">
+        <v>-0.1636537137213168</v>
+      </c>
+      <c r="F15">
         <v>0.3073027473217849</v>
+      </c>
+      <c r="G15">
+        <v>-0.137435991820638</v>
+      </c>
+      <c r="H15">
+        <v>0.01714888224306321</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3347037738205642</v>
+        <v>-0.2628875639548909</v>
       </c>
       <c r="C16">
-        <v>-0.3528875639548801</v>
+        <v>-0.253653713721306</v>
       </c>
       <c r="D16">
         <v>0.2173027473217956</v>
+      </c>
+      <c r="E16">
+        <v>-0.2274359918206272</v>
+      </c>
+      <c r="F16">
+        <v>-0.07285111775692599</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.2528875639549</v>
+        <v>0.3173027473217757</v>
       </c>
       <c r="C17">
-        <v>0.2673027473217928</v>
+        <v>-0.1774359918206301</v>
       </c>
       <c r="D17">
-        <v>-0.1228511177569516</v>
+        <v>-0.02285111775692883</v>
       </c>
       <c r="E17">
+        <v>-0.1210757917016281</v>
+      </c>
+      <c r="F17">
+        <v>0.1053351215706186</v>
+      </c>
+      <c r="G17">
         <v>-0.09781546156615673</v>
+      </c>
+      <c r="H17">
+        <v>0.143848076821996</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2875468210702223</v>
+        <v>-0.002607044008499315</v>
       </c>
       <c r="C18">
-        <v>0.02714888224305406</v>
+        <v>0.05429652660777146</v>
       </c>
       <c r="D18">
-        <v>-0.007864866245981317</v>
+        <v>0.2553351215706243</v>
       </c>
       <c r="E18">
-        <v>0.2384253617026957</v>
+        <v>0.002133485807618685</v>
       </c>
       <c r="F18">
-        <v>-0.5443652331533144</v>
+        <v>0.2337986721421714</v>
+      </c>
+      <c r="G18">
+        <v>0.09052945662452322</v>
+      </c>
+      <c r="H18">
+        <v>-0.5434101680193351</v>
+      </c>
+      <c r="I18">
+        <v>0.5294302296117053</v>
+      </c>
+      <c r="J18">
+        <v>0.3845755462418339</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.1228511177569658</v>
+        <v>0.1053351215706044</v>
       </c>
       <c r="C19">
-        <v>0.002184538433866068</v>
+        <v>0.05218453843384896</v>
       </c>
       <c r="D19">
         <v>0.2438480768220188</v>
       </c>
       <c r="E19">
+        <v>0.09735205942789099</v>
+      </c>
+      <c r="F19">
         <v>-0.5379874529000119</v>
+      </c>
+      <c r="G19">
+        <v>0.5353320131999624</v>
+      </c>
+      <c r="H19">
+        <v>0.3909533264951364</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.002184538433866068</v>
+        <v>0.2438480768220188</v>
       </c>
       <c r="C20">
-        <v>0.143848076821996</v>
+        <v>0.04735205942789383</v>
       </c>
       <c r="D20">
         <v>-0.6379874529000347</v>
       </c>
       <c r="E20">
-        <v>0.4986065680092508</v>
+        <v>0.4353320131999396</v>
       </c>
       <c r="F20">
+        <v>0.2909533264951136</v>
+      </c>
+      <c r="G20">
         <v>-0.1431994051349222</v>
       </c>
-      <c r="G20">
-        <v>-0.2235615165121772</v>
-      </c>
       <c r="H20">
-        <v>-1.709743457922741E-14</v>
+        <v>-0.005320875257496083</v>
+      </c>
+      <c r="I20">
+        <v>0.5999999999999829</v>
+      </c>
+      <c r="J20">
+        <v>0.0841980155796733</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2938480768219875</v>
+        <v>-0.4879874529000432</v>
       </c>
       <c r="C21">
-        <v>-0.5579874529000222</v>
+        <v>0.5603320131999681</v>
       </c>
       <c r="D21">
-        <v>0.5786065680092634</v>
+        <v>0.3709533264951262</v>
       </c>
       <c r="E21">
         <v>-0.06319940513490957</v>
       </c>
       <c r="F21">
-        <v>-0.1435615165121646</v>
+        <v>0.07467912474251653</v>
       </c>
       <c r="G21">
-        <v>0.07999999999999552</v>
+        <v>0.6799999999999955</v>
+      </c>
+      <c r="H21">
+        <v>0.1641980155796859</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.5379874529000119</v>
+        <v>0.3909533264951364</v>
       </c>
       <c r="C22">
-        <v>0.6486065680092565</v>
+        <v>0.006800594865083498</v>
       </c>
       <c r="D22">
-        <v>0.05680059486508071</v>
+        <v>0.1946791247425068</v>
       </c>
       <c r="E22">
-        <v>-0.02356151651217431</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="F22">
-        <v>0.1999999999999858</v>
+        <v>0.2841980155796762</v>
       </c>
       <c r="G22">
-        <v>0.754793450031272</v>
+        <v>-0.7500000000000113</v>
       </c>
       <c r="H22">
-        <v>-0.7500000000000113</v>
+        <v>0.3558981966389467</v>
       </c>
       <c r="I22">
-        <v>-0.3371780294474718</v>
+        <v>0.0176241445961125</v>
       </c>
       <c r="J22">
-        <v>0.3841681690171156</v>
+        <v>0.431298646449548</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.5986065680092736</v>
+        <v>-0.04319940513489939</v>
       </c>
       <c r="C23">
-        <v>-0.04319940513489939</v>
+        <v>0.09467912474252671</v>
       </c>
       <c r="D23">
-        <v>-0.08356151651216237</v>
+        <v>0.7399999999999978</v>
       </c>
       <c r="E23">
-        <v>0.1000000000000057</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="F23">
-        <v>0.8547934500312948</v>
+        <v>-0.6499999999999886</v>
       </c>
       <c r="G23">
-        <v>-0.7799999999999983</v>
+        <v>0.3258981966389598</v>
       </c>
       <c r="H23">
-        <v>-0.3671780294474587</v>
+        <v>-0.01237585540387437</v>
       </c>
       <c r="I23">
-        <v>0.3541681690171288</v>
+        <v>0.4012986464495611</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.04319940513489939</v>
+        <v>0.09467912474252671</v>
       </c>
       <c r="C24">
-        <v>-0.1235615165121544</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="D24">
-        <v>0.1000000000000057</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="E24">
-        <v>0.8947934500312869</v>
+        <v>-0.6099999999999965</v>
       </c>
       <c r="F24">
-        <v>-0.7200000000000102</v>
+        <v>0.3858981966389479</v>
       </c>
       <c r="G24">
-        <v>-0.3871780294474547</v>
+        <v>-0.03237585540387039</v>
       </c>
       <c r="H24">
-        <v>0.3341681690171328</v>
+        <v>0.3812986464495651</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.1235615165121544</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="C25">
-        <v>0.1000000000000057</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="D25">
-        <v>0.8847934500312817</v>
+        <v>-0.6200000000000017</v>
       </c>
       <c r="E25">
-        <v>-0.7500000000000113</v>
+        <v>0.3558981966389467</v>
       </c>
       <c r="F25">
-        <v>-0.3871780294474547</v>
+        <v>-0.03237585540387039</v>
       </c>
       <c r="G25">
-        <v>0.214168169017114</v>
+        <v>0.2612986464495464</v>
       </c>
       <c r="H25">
-        <v>-0.2151731949465443</v>
+        <v>3.445000000000005</v>
       </c>
       <c r="I25">
-        <v>3.445000000000005</v>
+        <v>11.16206676560194</v>
       </c>
       <c r="J25">
-        <v>11.16206676560194</v>
+        <v>-7.004999999999995</v>
       </c>
       <c r="K25">
-        <v>-10.57102434548657</v>
+        <v>1.045000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.08419801557969039</v>
       </c>
       <c r="C26">
-        <v>0.8047934500312834</v>
+        <v>-0.7</v>
       </c>
       <c r="D26">
-        <v>-0.7999999999999999</v>
+        <v>0.3058981966389581</v>
       </c>
       <c r="E26">
-        <v>-0.3871780294474604</v>
+        <v>-0.03237585540387605</v>
       </c>
       <c r="F26">
-        <v>0.2341681690171271</v>
+        <v>0.2812986464495594</v>
       </c>
       <c r="G26">
-        <v>-0.1601731949465488</v>
+        <v>3.5</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>11.21706676560194</v>
       </c>
       <c r="I26">
-        <v>11.21706676560194</v>
+        <v>-6.95</v>
       </c>
       <c r="J26">
-        <v>-10.51602434548657</v>
+        <v>1.099999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.8447934500312755</v>
+        <v>-0.6600000000000079</v>
       </c>
       <c r="C27">
-        <v>-1.100000000000006</v>
+        <v>0.005898196638952413</v>
       </c>
       <c r="D27">
-        <v>-0.4871780294474775</v>
+        <v>-0.1323758554038932</v>
       </c>
       <c r="E27">
-        <v>0.23416816901711</v>
+        <v>0.2812986464495423</v>
       </c>
       <c r="F27">
-        <v>-0.1601731949465659</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="G27">
-        <v>3.499999999999983</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="H27">
-        <v>11.21706676560192</v>
+        <v>-6.950000000000017</v>
       </c>
       <c r="I27">
-        <v>-10.51602434548659</v>
+        <v>1.09999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1.5</v>
+        <v>-0.3941018033610419</v>
       </c>
       <c r="C28">
-        <v>-0.4871780294474604</v>
+        <v>-0.1323758554038761</v>
       </c>
       <c r="D28">
-        <v>0.2341681690171271</v>
+        <v>0.2812986464495594</v>
       </c>
       <c r="E28">
-        <v>-0.1601731949465488</v>
+        <v>3.5</v>
       </c>
       <c r="F28">
-        <v>3.5</v>
+        <v>11.21706676560194</v>
       </c>
       <c r="G28">
-        <v>11.21706676560194</v>
+        <v>-6.95</v>
       </c>
       <c r="H28">
-        <v>-10.51602434548657</v>
+        <v>1.099999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.6871780294474945</v>
+        <v>-0.3323758554039102</v>
       </c>
       <c r="C29">
-        <v>0.1341681690171299</v>
+        <v>0.1812986464495622</v>
       </c>
       <c r="D29">
-        <v>-0.260173194946546</v>
+        <v>3.400000000000003</v>
       </c>
       <c r="E29">
-        <v>3.499999999999983</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="F29">
-        <v>11.21706676560192</v>
+        <v>-6.950000000000017</v>
       </c>
       <c r="G29">
-        <v>-10.45602434548657</v>
+        <v>1.159999999999997</v>
       </c>
       <c r="H29">
-        <v>3.689792626865739</v>
+        <v>2.760000000000006</v>
       </c>
       <c r="I29">
-        <v>5.656794673020016</v>
+        <v>-3.180874220397811</v>
       </c>
       <c r="J29">
-        <v>-2.932891992481572</v>
+        <v>-6.100000000000023</v>
       </c>
       <c r="K29">
-        <v>-5.907106464233138</v>
+        <v>1.399999999999977</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.07416816901711348</v>
+        <v>0.1212986464495459</v>
       </c>
       <c r="C30">
-        <v>-0.1601731949465659</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="D30">
-        <v>3.44900000000001</v>
+        <v>11.16606676560195</v>
       </c>
       <c r="E30">
-        <v>11.16606676560195</v>
+        <v>-7.000999999999991</v>
       </c>
       <c r="F30">
-        <v>-10.51602434548659</v>
+        <v>1.09999999999998</v>
       </c>
       <c r="G30">
-        <v>3.869792626865745</v>
+        <v>2.940000000000012</v>
       </c>
       <c r="H30">
-        <v>5.796794673020031</v>
+        <v>-3.040874220397796</v>
       </c>
       <c r="I30">
-        <v>-2.892891992481552</v>
+        <v>-6.060000000000002</v>
       </c>
       <c r="J30">
-        <v>-5.867106464233117</v>
+        <v>1.439999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.5601731949465147</v>
+        <v>3.100000000000034</v>
       </c>
       <c r="C31">
-        <v>-3.8</v>
+        <v>3.917066765601939</v>
       </c>
       <c r="D31">
-        <v>14.21706676560194</v>
+        <v>-3.950000000000003</v>
       </c>
       <c r="E31">
-        <v>-8.416024345486592</v>
+        <v>3.199999999999974</v>
       </c>
       <c r="F31">
-        <v>5.729792626865759</v>
+        <v>4.800000000000026</v>
       </c>
       <c r="G31">
-        <v>6.956794673020013</v>
+        <v>-1.880874220397814</v>
       </c>
       <c r="H31">
-        <v>-2.893388624637865</v>
+        <v>-6.060496632156315</v>
       </c>
       <c r="I31">
-        <v>-5.867601416011482</v>
+        <v>1.439505048221633</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1239,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-7.600000000000001</v>
+        <v>0.1170667656019386</v>
       </c>
       <c r="C32">
-        <v>19.11706676560194</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="D32">
-        <v>-7.81602434548657</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="E32">
-        <v>4.129792626865739</v>
+        <v>3.200000000000006</v>
       </c>
       <c r="F32">
-        <v>6.356794673020033</v>
+        <v>-2.480874220397794</v>
       </c>
       <c r="G32">
-        <v>-2.832891992481555</v>
+        <v>-6.000000000000005</v>
       </c>
       <c r="H32">
-        <v>-5.80710646423312</v>
+        <v>1.499999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>18.16706676560194</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.376024345486572</v>
+        <v>3.239999999999995</v>
       </c>
       <c r="D33">
-        <v>4.029792626865728</v>
+        <v>3.099999999999995</v>
       </c>
       <c r="E33">
-        <v>6.256794673020025</v>
+        <v>-2.580874220397802</v>
       </c>
       <c r="F33">
-        <v>-2.832891992481549</v>
+        <v>-6</v>
       </c>
       <c r="G33">
-        <v>-5.807106464233115</v>
+        <v>1.5</v>
       </c>
       <c r="H33">
-        <v>2.190717317831428</v>
+        <v>0.01905326533243112</v>
       </c>
       <c r="I33">
-        <v>0.5746947653272656</v>
+        <v>-1.100000000000008</v>
       </c>
       <c r="J33">
-        <v>-0.3780328061469476</v>
+        <v>0.5889999999999986</v>
       </c>
       <c r="K33">
-        <v>-0.5979284922632784</v>
+        <v>0.9399966213670581</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-11.61602434548657</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>3.329792626865739</v>
+        <v>2.400000000000006</v>
       </c>
       <c r="D34">
-        <v>8.456794673020028</v>
+        <v>-0.3808742203977999</v>
       </c>
       <c r="E34">
-        <v>-2.332891992481564</v>
+        <v>-5.500000000000014</v>
       </c>
       <c r="F34">
-        <v>-5.56710646423312</v>
+        <v>1.739999999999995</v>
       </c>
       <c r="G34">
-        <v>2.190717317831428</v>
+        <v>0.01905326533243112</v>
       </c>
       <c r="H34">
-        <v>0.5746947653272656</v>
+        <v>-1.100000000000008</v>
       </c>
       <c r="I34">
-        <v>-0.3780328061469476</v>
+        <v>0.5889999999999986</v>
       </c>
       <c r="J34">
-        <v>-0.5979284922632784</v>
+        <v>0.9399966213670581</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.9297926268657331</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>8.65679467302003</v>
+        <v>-0.1808742203977967</v>
       </c>
       <c r="D35">
-        <v>1.367108007518454</v>
+        <v>-1.799999999999996</v>
       </c>
       <c r="E35">
-        <v>-4.407106464233124</v>
+        <v>2.899999999999991</v>
       </c>
       <c r="F35">
-        <v>2.420935984437619</v>
+        <v>0.2492719319386225</v>
       </c>
       <c r="G35">
-        <v>0.700909546207086</v>
+        <v>-0.9737852191201879</v>
       </c>
       <c r="H35">
-        <v>-0.3605610608207712</v>
+        <v>0.606471745326175</v>
       </c>
       <c r="I35">
-        <v>-0.6118154660081669</v>
+        <v>0.9261096476221696</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>8.837668893417828</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>3.467108007518434</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="D36">
-        <v>-3.807106464233115</v>
+        <v>3.5</v>
       </c>
       <c r="E36">
-        <v>2.350717317831424</v>
+        <v>0.1790532653324277</v>
       </c>
       <c r="F36">
-        <v>0.6346947653272537</v>
+        <v>-1.04000000000002</v>
       </c>
       <c r="G36">
-        <v>-0.3436381176476431</v>
+        <v>0.6233946884993031</v>
       </c>
       <c r="H36">
-        <v>-0.6514190311999213</v>
+        <v>0.8865060824304152</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>3.167108007518451</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-3.607106464233112</v>
+        <v>3.700000000000003</v>
       </c>
       <c r="D37">
-        <v>2.650717317831421</v>
+        <v>0.4790532653324249</v>
       </c>
       <c r="E37">
-        <v>0.8346947653272565</v>
+        <v>-0.8400000000000174</v>
       </c>
       <c r="F37">
-        <v>-0.218032806146951</v>
+        <v>0.7489999999999952</v>
       </c>
       <c r="G37">
-        <v>-0.5379284922632903</v>
+        <v>0.9999966213670461</v>
       </c>
       <c r="H37">
-        <v>1.203932912058647</v>
+        <v>0.9399999999999977</v>
       </c>
       <c r="I37">
-        <v>1.429861316022425</v>
+        <v>0.4510000000000076</v>
       </c>
       <c r="J37">
-        <v>0.1526454189713746</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0.4656763841019966</v>
+        <v>0.07999999999999828</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-7.307106464233115</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.350717317831424</v>
+        <v>-1.820946734667573</v>
       </c>
       <c r="D38">
-        <v>4.634694765327268</v>
+        <v>2.959999999999994</v>
       </c>
       <c r="E38">
-        <v>1.631967193853058</v>
+        <v>2.599000000000004</v>
       </c>
       <c r="F38">
-        <v>-0.5179284922632659</v>
+        <v>1.019996621367071</v>
       </c>
       <c r="G38">
-        <v>1.353932912058653</v>
+        <v>1.090000000000003</v>
       </c>
       <c r="H38">
-        <v>1.579861316022431</v>
+        <v>0.6010000000000133</v>
       </c>
       <c r="I38">
-        <v>0.2026454189713718</v>
+        <v>0.04999999999999721</v>
       </c>
       <c r="J38">
-        <v>0.5156763841019938</v>
+        <v>0.1299999999999955</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>2.171664052498997</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1.724694765327271</v>
+        <v>0.04999999999999694</v>
       </c>
       <c r="D39">
-        <v>0.3559228950663997</v>
+        <v>1.322955701213346</v>
       </c>
       <c r="E39">
-        <v>0.06207150773671799</v>
+        <v>1.599996621367054</v>
       </c>
       <c r="F39">
-        <v>1.973932912058643</v>
+        <v>1.709999999999994</v>
       </c>
       <c r="G39">
-        <v>2.259861316022423</v>
+        <v>1.281000000000006</v>
       </c>
       <c r="H39">
-        <v>0.6326454189713644</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="I39">
-        <v>0.6856763841019955</v>
+        <v>0.2999999999999972</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1.674694765327274</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.3819671938530578</v>
+        <v>1.349000000000004</v>
       </c>
       <c r="D40">
-        <v>-0.1879284922632818</v>
+        <v>1.349996621367055</v>
       </c>
       <c r="E40">
-        <v>1.703932912058633</v>
+        <v>1.439999999999984</v>
       </c>
       <c r="F40">
-        <v>1.829861316022416</v>
+        <v>0.8509999999999991</v>
       </c>
       <c r="G40">
-        <v>0.5526454189713661</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="H40">
-        <v>0.6156763841020023</v>
+        <v>0.230000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.9670328061469462</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-1.677928492263277</v>
+        <v>-0.1400033786329402</v>
       </c>
       <c r="D41">
-        <v>-0.336067087941359</v>
+        <v>-0.6000000000000081</v>
       </c>
       <c r="E41">
-        <v>0.8298613160224164</v>
+        <v>-0.1490000000000009</v>
       </c>
       <c r="F41">
-        <v>0.2026454189713718</v>
+        <v>0.04999999999999721</v>
       </c>
       <c r="G41">
-        <v>0.7656763841019796</v>
+        <v>0.3799999999999813</v>
       </c>
       <c r="H41">
-        <v>0.3632612702442088</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
-        <v>1.014894517653033</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="J41">
-        <v>0.8219948986110523</v>
+        <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.3112534500261574</v>
+        <v>0.2799984123704178</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1.537925113630336</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.05383291205865204</v>
+        <v>-0.2100999999999971</v>
       </c>
       <c r="D42">
-        <v>0.8998613160224238</v>
+        <v>-0.07899999999999352</v>
       </c>
       <c r="E42">
-        <v>0.492645418971378</v>
+        <v>0.3400000000000035</v>
       </c>
       <c r="F42">
-        <v>0.805676384102</v>
+        <v>0.4200000000000018</v>
       </c>
       <c r="G42">
-        <v>0.2632612702442003</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="H42">
-        <v>0.7148945176530219</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="I42">
-        <v>0.5219948986110409</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="J42">
-        <v>-0.04874654997384201</v>
+        <v>-0.08000158762958157</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2639329120586491</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1.16986131602242</v>
+        <v>0.1910000000000025</v>
       </c>
       <c r="D43">
-        <v>0.3526454189713775</v>
+        <v>0.2000000000000029</v>
       </c>
       <c r="E43">
-        <v>0.8656763841019881</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="F43">
-        <v>0.2632612702442003</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="G43">
-        <v>0.7448945176530515</v>
+        <v>0.3300000000000125</v>
       </c>
       <c r="H43">
-        <v>0.4619948986110529</v>
+        <v>0.1400000000000006</v>
       </c>
       <c r="I43">
-        <v>-0.08874654997383413</v>
+        <v>-0.1200015876295737</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.9788613160224173</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.5016454189713784</v>
+        <v>0.3490000000000038</v>
       </c>
       <c r="D44">
-        <v>0.8656763841019881</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="E44">
-        <v>0.4122612702442296</v>
+        <v>0.5490000000000208</v>
       </c>
       <c r="F44">
-        <v>1.063894517653054</v>
+        <v>0.6490000000000151</v>
       </c>
       <c r="G44">
-        <v>0.7709948986110646</v>
+        <v>0.4490000000000123</v>
       </c>
       <c r="H44">
-        <v>0.1602534500261754</v>
+        <v>0.1289984123704358</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.1526454189713746</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.7656763841019796</v>
+        <v>0.3799999999999813</v>
       </c>
       <c r="D45">
-        <v>0.1632612702442202</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="E45">
-        <v>1.014894517653033</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="F45">
-        <v>0.8369948986110671</v>
+        <v>0.5150000000000148</v>
       </c>
       <c r="G45">
-        <v>0.2112534500261489</v>
+        <v>0.1799984123704093</v>
       </c>
       <c r="H45">
-        <v>0.416654182623347</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="I45">
-        <v>-0.1898317593399668</v>
+        <v>0.0999965580756878</v>
       </c>
       <c r="J45">
-        <v>0.1452723979283945</v>
+        <v>0.1600000000000107</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3856763841019983</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.06326127024419739</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="D46">
-        <v>0.8148945176530447</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="E46">
-        <v>0.8219948986110523</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
-        <v>0.3112534500261574</v>
+        <v>0.2799984123704178</v>
       </c>
       <c r="G46">
-        <v>0.416654182623347</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="H46">
-        <v>-0.08983175933994403</v>
+        <v>0.1999965580757106</v>
       </c>
       <c r="I46">
-        <v>0.2452723979283746</v>
+        <v>0.2599999999999908</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.1367387297557912</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.8148945176530447</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D47">
-        <v>0.8219948986110523</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
-        <v>0.3112534500261574</v>
+        <v>0.2799984123704178</v>
       </c>
       <c r="F47">
-        <v>0.416654182623347</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="G47">
-        <v>-0.08983175933994403</v>
+        <v>0.1999965580757106</v>
       </c>
       <c r="H47">
-        <v>0.2452723979283746</v>
+        <v>0.2599999999999908</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.414894517653039</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.6709948986110703</v>
+        <v>0.349000000000018</v>
       </c>
       <c r="D48">
-        <v>0.1802534500261714</v>
+        <v>0.1489984123704318</v>
       </c>
       <c r="E48">
-        <v>0.467654082623369</v>
+        <v>0.4510021850653061</v>
       </c>
       <c r="F48">
-        <v>0.07016824066005256</v>
+        <v>0.3599965580757072</v>
       </c>
       <c r="G48">
-        <v>0.445272387928398</v>
+        <v>0.4599999900000142</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0.3219948986110523</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.01125345002614597</v>
+        <v>-0.02000158762959359</v>
       </c>
       <c r="D49">
-        <v>0.416654182623347</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="E49">
-        <v>0.1101682406600446</v>
+        <v>0.3999965580756992</v>
       </c>
       <c r="F49">
-        <v>0.4452723979283775</v>
+        <v>0.4599999999999937</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.03125503765573956</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.2166541826233441</v>
+        <v>0.2000022850652811</v>
       </c>
       <c r="D50">
-        <v>-0.2298317593399588</v>
+        <v>0.05999655807569582</v>
       </c>
       <c r="E50">
-        <v>0.1252723979283985</v>
+        <v>0.1400000000000148</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0.01665189755806296</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>-0.2498317593399548</v>
+        <v>0.03999655807569982</v>
       </c>
       <c r="D51">
-        <v>0.1752723979283815</v>
+        <v>0.1899999999999978</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-0.2898283174156546</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.045272397928386</v>
+        <v>0.06000000000000227</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.01472760207161627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/PRIVCON/Data/ifo_err/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED5E430F0B612D4CE74D8F4AF155549CB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2E872D-AFA4-484E-985B-E10D4B0CB80F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,17 +271,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +572,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,87 +616,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.030789299073177</v>
+        <v>1.0307892990731771</v>
       </c>
       <c r="C2">
-        <v>-0.06476565934849532</v>
+        <v>-6.4765659348495319E-2</v>
       </c>
       <c r="D2">
-        <v>0.8821410908285969</v>
+        <v>0.88214109082859693</v>
       </c>
       <c r="E2">
-        <v>0.05884063127921024</v>
+        <v>5.8840631279210243E-2</v>
       </c>
       <c r="F2">
-        <v>0.6143890380460846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.61438903804608458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.7571410908285969</v>
+        <v>0.75714109082859693</v>
       </c>
       <c r="C3">
-        <v>-0.0561593687207847</v>
+        <v>-5.6159368720784697E-2</v>
       </c>
       <c r="D3">
-        <v>0.5143890380460761</v>
+        <v>0.51438903804607605</v>
       </c>
       <c r="E3">
-        <v>-0.2114603479951001</v>
+        <v>-0.21146034799510011</v>
       </c>
       <c r="F3">
-        <v>-0.3745551687457578</v>
+        <v>-0.37455516874575778</v>
       </c>
       <c r="G3">
-        <v>1.084360280688273</v>
+        <v>1.0843602806882731</v>
       </c>
       <c r="H3">
-        <v>0.3757398580474813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.37573985804748128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6643890380460817</v>
+        <v>0.66438903804608174</v>
       </c>
       <c r="C4">
-        <v>0.03853965200488568</v>
+        <v>3.8539652004885683E-2</v>
       </c>
       <c r="D4">
-        <v>-0.3495551687457663</v>
+        <v>-0.34955516874576631</v>
       </c>
       <c r="E4">
-        <v>0.6843602806882529</v>
+        <v>0.68436028068825294</v>
       </c>
       <c r="F4">
         <v>-0.1742601419525158</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.499555168745772</v>
+        <v>-0.49955516874577199</v>
       </c>
       <c r="C5">
-        <v>1.284360280688276</v>
+        <v>1.2843602806882759</v>
       </c>
       <c r="D5">
         <v>-0.1742601419525158</v>
       </c>
       <c r="E5">
-        <v>0.3215943001740271</v>
+        <v>0.32159430017402713</v>
       </c>
       <c r="F5">
         <v>-0.9500000000000085</v>
@@ -684,56 +705,56 @@
         <v>-0.5499999999999915</v>
       </c>
       <c r="H5">
-        <v>-0.6349193672116513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.63491936721165132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.3242601419525215</v>
+        <v>-0.32426014195252151</v>
       </c>
       <c r="C6">
-        <v>1.321594300174013</v>
+        <v>1.3215943001740129</v>
       </c>
       <c r="D6">
-        <v>-0.4499999999999943</v>
+        <v>-0.44999999999999429</v>
       </c>
       <c r="E6">
-        <v>-0.1999999999999972</v>
+        <v>-0.19999999999999721</v>
       </c>
       <c r="F6">
-        <v>-0.4349193672116485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.43491936721164848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.3000000000000171</v>
+        <v>-0.30000000000001709</v>
       </c>
       <c r="C7">
         <v>-0.1749999999999915</v>
       </c>
       <c r="D7">
-        <v>-0.4849193672116456</v>
+        <v>-0.48491936721164558</v>
       </c>
       <c r="E7">
-        <v>-0.3000000000000057</v>
+        <v>-0.30000000000000571</v>
       </c>
       <c r="F7">
-        <v>0.7472483967898285</v>
+        <v>0.74724839678982846</v>
       </c>
       <c r="G7">
-        <v>-0.6140368792747637</v>
+        <v>-0.61403687927476369</v>
       </c>
       <c r="H7">
-        <v>0.4512463990342326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.45124639903423258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -744,27 +765,27 @@
         <v>-0.2</v>
       </c>
       <c r="D8">
-        <v>0.8972483967898228</v>
+        <v>0.89724839678982282</v>
       </c>
       <c r="E8">
-        <v>-0.4140368792747665</v>
+        <v>-0.41403687927476651</v>
       </c>
       <c r="F8">
         <v>0.6012463990342326</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7972483967898227</v>
+        <v>0.79724839678982273</v>
       </c>
       <c r="C9">
-        <v>-0.5140368792747665</v>
+        <v>-0.51403687927476649</v>
       </c>
       <c r="D9">
-        <v>0.5012463990342326</v>
+        <v>0.50124639903423263</v>
       </c>
       <c r="E9">
         <v>-0.1</v>
@@ -776,15 +797,15 @@
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.840329042122363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.84032904212236303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.5012463990342326</v>
+        <v>0.50124639903423263</v>
       </c>
       <c r="C10">
         <v>-0.1</v>
@@ -796,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.640329042122363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.64032904212236297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7403290421223629</v>
+        <v>0.74032904212236295</v>
       </c>
       <c r="E11">
         <v>-0.4</v>
@@ -822,18 +843,18 @@
         <v>0.3</v>
       </c>
       <c r="H11">
-        <v>0.6963573102740611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.69635731027406111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.440329042122363</v>
+        <v>0.44032904212236301</v>
       </c>
       <c r="C12">
-        <v>-0.6000000000000001</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="D12">
         <v>-0.4</v>
@@ -842,10 +863,10 @@
         <v>0.2</v>
       </c>
       <c r="F12">
-        <v>0.5963573102740611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.59635731027406114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -856,10 +877,10 @@
         <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.5963573102740611</v>
+        <v>0.59635731027406114</v>
       </c>
       <c r="E13">
-        <v>-0.3873521384730879</v>
+        <v>-0.38735213847308791</v>
       </c>
       <c r="F13">
         <v>0.1947037738205665</v>
@@ -868,87 +889,87 @@
         <v>-0.4267133658511682</v>
       </c>
       <c r="H13">
-        <v>-0.4028875639548886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-0.40288756395488862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.5963573102740611</v>
+        <v>0.59635731027406114</v>
       </c>
       <c r="C14">
-        <v>-0.2873521384730878</v>
+        <v>-0.28735213847308783</v>
       </c>
       <c r="D14">
-        <v>0.2947037738205665</v>
+        <v>0.29470377382056651</v>
       </c>
       <c r="E14">
-        <v>-0.2267133658511682</v>
+        <v>-0.22671336585116819</v>
       </c>
       <c r="F14">
-        <v>-0.2028875639548886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>-0.20288756395488861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2437037738205703</v>
+        <v>0.24370377382057029</v>
       </c>
       <c r="C15">
-        <v>-0.2867133658511705</v>
+        <v>-0.28671336585117052</v>
       </c>
       <c r="D15">
-        <v>-0.2628875639548909</v>
+        <v>-0.26288756395489088</v>
       </c>
       <c r="E15">
-        <v>-0.1636537137213168</v>
+        <v>-0.16365371372131679</v>
       </c>
       <c r="F15">
-        <v>0.3073027473217849</v>
+        <v>0.30730274732178492</v>
       </c>
       <c r="G15">
-        <v>-0.137435991820638</v>
+        <v>-0.13743599182063801</v>
       </c>
       <c r="H15">
-        <v>0.01714888224306321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>1.7148882243063209E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.2628875639548909</v>
+        <v>-0.26288756395489088</v>
       </c>
       <c r="C16">
-        <v>-0.253653713721306</v>
+        <v>-0.25365371372130602</v>
       </c>
       <c r="D16">
-        <v>0.2173027473217956</v>
+        <v>0.21730274732179561</v>
       </c>
       <c r="E16">
-        <v>-0.2274359918206272</v>
+        <v>-0.22743599182062721</v>
       </c>
       <c r="F16">
-        <v>-0.07285111775692599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>-7.2851117756925987E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3173027473217757</v>
+        <v>0.31730274732177571</v>
       </c>
       <c r="C17">
-        <v>-0.1774359918206301</v>
+        <v>-0.17743599182063011</v>
       </c>
       <c r="D17">
-        <v>-0.02285111775692883</v>
+        <v>-2.2851117756928829E-2</v>
       </c>
       <c r="E17">
         <v>-0.1210757917016281</v>
@@ -957,45 +978,45 @@
         <v>0.1053351215706186</v>
       </c>
       <c r="G17">
-        <v>-0.09781546156615673</v>
+        <v>-9.7815461566156725E-2</v>
       </c>
       <c r="H17">
-        <v>0.143848076821996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.14384807682199599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.002607044008499315</v>
+        <v>-2.6070440084993152E-3</v>
       </c>
       <c r="C18">
-        <v>0.05429652660777146</v>
+        <v>5.4296526607771463E-2</v>
       </c>
       <c r="D18">
-        <v>0.2553351215706243</v>
+        <v>0.25533512157062432</v>
       </c>
       <c r="E18">
-        <v>0.002133485807618685</v>
+        <v>2.1334858076186851E-3</v>
       </c>
       <c r="F18">
         <v>0.2337986721421714</v>
       </c>
       <c r="G18">
-        <v>0.09052945662452322</v>
+        <v>9.0529456624523219E-2</v>
       </c>
       <c r="H18">
-        <v>-0.5434101680193351</v>
+        <v>-0.54341016801933506</v>
       </c>
       <c r="I18">
-        <v>0.5294302296117053</v>
+        <v>0.52943022961170527</v>
       </c>
       <c r="J18">
-        <v>0.3845755462418339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.38457554624183388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1003,222 +1024,222 @@
         <v>0.1053351215706044</v>
       </c>
       <c r="C19">
-        <v>0.05218453843384896</v>
+        <v>5.2184538433848959E-2</v>
       </c>
       <c r="D19">
-        <v>0.2438480768220188</v>
+        <v>0.24384807682201881</v>
       </c>
       <c r="E19">
-        <v>0.09735205942789099</v>
+        <v>9.7352059427890991E-2</v>
       </c>
       <c r="F19">
-        <v>-0.5379874529000119</v>
+        <v>-0.53798745290001193</v>
       </c>
       <c r="G19">
-        <v>0.5353320131999624</v>
+        <v>0.53533201319996238</v>
       </c>
       <c r="H19">
-        <v>0.3909533264951364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0.39095332649513642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2438480768220188</v>
+        <v>0.24384807682201881</v>
       </c>
       <c r="C20">
-        <v>0.04735205942789383</v>
+        <v>4.7352059427893833E-2</v>
       </c>
       <c r="D20">
-        <v>-0.6379874529000347</v>
+        <v>-0.63798745290003467</v>
       </c>
       <c r="E20">
-        <v>0.4353320131999396</v>
+        <v>0.43533201319993958</v>
       </c>
       <c r="F20">
-        <v>0.2909533264951136</v>
+        <v>0.29095332649511357</v>
       </c>
       <c r="G20">
-        <v>-0.1431994051349222</v>
+        <v>-0.14319940513492219</v>
       </c>
       <c r="H20">
-        <v>-0.005320875257496083</v>
+        <v>-5.3208752574960827E-3</v>
       </c>
       <c r="I20">
-        <v>0.5999999999999829</v>
+        <v>0.59999999999998288</v>
       </c>
       <c r="J20">
-        <v>0.0841980155796733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>8.4198015579673297E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.4879874529000432</v>
+        <v>-0.48798745290004319</v>
       </c>
       <c r="C21">
-        <v>0.5603320131999681</v>
+        <v>0.56033201319996806</v>
       </c>
       <c r="D21">
-        <v>0.3709533264951262</v>
+        <v>0.37095332649512619</v>
       </c>
       <c r="E21">
-        <v>-0.06319940513490957</v>
+        <v>-6.319940513490957E-2</v>
       </c>
       <c r="F21">
-        <v>0.07467912474251653</v>
+        <v>7.4679124742516534E-2</v>
       </c>
       <c r="G21">
         <v>0.6799999999999955</v>
       </c>
       <c r="H21">
-        <v>0.1641980155796859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.16419801557968591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3909533264951364</v>
+        <v>0.39095332649513642</v>
       </c>
       <c r="C22">
-        <v>0.006800594865083498</v>
+        <v>6.800594865083498E-3</v>
       </c>
       <c r="D22">
-        <v>0.1946791247425068</v>
+        <v>0.19467912474250679</v>
       </c>
       <c r="E22">
-        <v>0.7999999999999858</v>
+        <v>0.79999999999998583</v>
       </c>
       <c r="F22">
-        <v>0.2841980155796762</v>
+        <v>0.28419801557967622</v>
       </c>
       <c r="G22">
-        <v>-0.7500000000000113</v>
+        <v>-0.75000000000001132</v>
       </c>
       <c r="H22">
-        <v>0.3558981966389467</v>
+        <v>0.35589819663894667</v>
       </c>
       <c r="I22">
-        <v>0.0176241445961125</v>
+        <v>1.7624144596112501E-2</v>
       </c>
       <c r="J22">
-        <v>0.431298646449548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.43129864644954802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04319940513489939</v>
+        <v>-4.3199405134899387E-2</v>
       </c>
       <c r="C23">
-        <v>0.09467912474252671</v>
+        <v>9.467912474252671E-2</v>
       </c>
       <c r="D23">
-        <v>0.7399999999999978</v>
+        <v>0.73999999999999777</v>
       </c>
       <c r="E23">
-        <v>0.1841980155796961</v>
+        <v>0.18419801557969609</v>
       </c>
       <c r="F23">
-        <v>-0.6499999999999886</v>
+        <v>-0.64999999999998859</v>
       </c>
       <c r="G23">
         <v>0.3258981966389598</v>
       </c>
       <c r="H23">
-        <v>-0.01237585540387437</v>
+        <v>-1.237585540387437E-2</v>
       </c>
       <c r="I23">
-        <v>0.4012986464495611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.40129864644956109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.09467912474252671</v>
+        <v>9.467912474252671E-2</v>
       </c>
       <c r="C24">
-        <v>0.7000000000000057</v>
+        <v>0.70000000000000573</v>
       </c>
       <c r="D24">
-        <v>0.1841980155796961</v>
+        <v>0.18419801557969609</v>
       </c>
       <c r="E24">
-        <v>-0.6099999999999965</v>
+        <v>-0.60999999999999654</v>
       </c>
       <c r="F24">
-        <v>0.3858981966389479</v>
+        <v>0.38589819663894792</v>
       </c>
       <c r="G24">
-        <v>-0.03237585540387039</v>
+        <v>-3.2375855403870391E-2</v>
       </c>
       <c r="H24">
-        <v>0.3812986464495651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.38129864644956513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.7000000000000057</v>
+        <v>0.70000000000000573</v>
       </c>
       <c r="C25">
-        <v>0.1841980155796961</v>
+        <v>0.18419801557969609</v>
       </c>
       <c r="D25">
-        <v>-0.6200000000000017</v>
+        <v>-0.62000000000000166</v>
       </c>
       <c r="E25">
-        <v>0.3558981966389467</v>
+        <v>0.35589819663894667</v>
       </c>
       <c r="F25">
-        <v>-0.03237585540387039</v>
+        <v>-3.2375855403870391E-2</v>
       </c>
       <c r="G25">
-        <v>0.2612986464495464</v>
+        <v>0.26129864644954642</v>
       </c>
       <c r="H25">
-        <v>3.445000000000005</v>
+        <v>3.4450000000000052</v>
       </c>
       <c r="I25">
         <v>11.16206676560194</v>
       </c>
       <c r="J25">
-        <v>-7.004999999999995</v>
+        <v>-7.0049999999999946</v>
       </c>
       <c r="K25">
-        <v>1.045000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>1.0450000000000019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.08419801557969039</v>
+        <v>8.4198015579690394E-2</v>
       </c>
       <c r="C26">
         <v>-0.7</v>
       </c>
       <c r="D26">
-        <v>0.3058981966389581</v>
+        <v>0.30589819663895812</v>
       </c>
       <c r="E26">
-        <v>-0.03237585540387605</v>
+        <v>-3.2375855403876053E-2</v>
       </c>
       <c r="F26">
-        <v>0.2812986464495594</v>
+        <v>0.28129864644955938</v>
       </c>
       <c r="G26">
         <v>3.5</v>
@@ -1233,47 +1254,47 @@
         <v>1.099999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.6600000000000079</v>
+        <v>-0.66000000000000791</v>
       </c>
       <c r="C27">
-        <v>0.005898196638952413</v>
+        <v>5.8981966389524132E-3</v>
       </c>
       <c r="D27">
-        <v>-0.1323758554038932</v>
+        <v>-0.13237585540389321</v>
       </c>
       <c r="E27">
-        <v>0.2812986464495423</v>
+        <v>0.28129864644954228</v>
       </c>
       <c r="F27">
-        <v>3.499999999999983</v>
+        <v>3.4999999999999831</v>
       </c>
       <c r="G27">
-        <v>11.21706676560192</v>
+        <v>11.217066765601921</v>
       </c>
       <c r="H27">
-        <v>-6.950000000000017</v>
+        <v>-6.9500000000000171</v>
       </c>
       <c r="I27">
-        <v>1.09999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>1.0999999999999801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3941018033610419</v>
+        <v>-0.39410180336104189</v>
       </c>
       <c r="C28">
-        <v>-0.1323758554038761</v>
+        <v>-0.13237585540387611</v>
       </c>
       <c r="D28">
-        <v>0.2812986464495594</v>
+        <v>0.28129864644955938</v>
       </c>
       <c r="E28">
         <v>3.5</v>
@@ -1288,12 +1309,12 @@
         <v>1.099999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3323758554039102</v>
+        <v>-0.33237585540391018</v>
       </c>
       <c r="C29">
         <v>0.1812986464495622</v>
@@ -1302,10 +1323,10 @@
         <v>3.400000000000003</v>
       </c>
       <c r="E29">
-        <v>11.21706676560192</v>
+        <v>11.217066765601921</v>
       </c>
       <c r="F29">
-        <v>-6.950000000000017</v>
+        <v>-6.9500000000000171</v>
       </c>
       <c r="G29">
         <v>1.159999999999997</v>
@@ -1314,16 +1335,16 @@
         <v>2.760000000000006</v>
       </c>
       <c r="I29">
-        <v>-3.180874220397811</v>
+        <v>-3.1808742203978109</v>
       </c>
       <c r="J29">
-        <v>-6.100000000000023</v>
+        <v>-6.1000000000000227</v>
       </c>
       <c r="K29">
         <v>1.399999999999977</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1331,60 +1352,60 @@
         <v>0.1212986464495459</v>
       </c>
       <c r="C30">
-        <v>3.499999999999983</v>
+        <v>3.4999999999999831</v>
       </c>
       <c r="D30">
-        <v>11.16606676560195</v>
+        <v>11.166066765601951</v>
       </c>
       <c r="E30">
-        <v>-7.000999999999991</v>
+        <v>-7.0009999999999906</v>
       </c>
       <c r="F30">
-        <v>1.09999999999998</v>
+        <v>1.0999999999999801</v>
       </c>
       <c r="G30">
-        <v>2.940000000000012</v>
+        <v>2.9400000000000119</v>
       </c>
       <c r="H30">
-        <v>-3.040874220397796</v>
+        <v>-3.0408742203977961</v>
       </c>
       <c r="I30">
-        <v>-6.060000000000002</v>
+        <v>-6.0600000000000023</v>
       </c>
       <c r="J30">
-        <v>1.439999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>1.4399999999999979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3.100000000000034</v>
+        <v>3.1000000000000338</v>
       </c>
       <c r="C31">
-        <v>3.917066765601939</v>
+        <v>3.9170667656019389</v>
       </c>
       <c r="D31">
-        <v>-3.950000000000003</v>
+        <v>-3.9500000000000028</v>
       </c>
       <c r="E31">
         <v>3.199999999999974</v>
       </c>
       <c r="F31">
-        <v>4.800000000000026</v>
+        <v>4.8000000000000256</v>
       </c>
       <c r="G31">
-        <v>-1.880874220397814</v>
+        <v>-1.8808742203978139</v>
       </c>
       <c r="H31">
-        <v>-6.060496632156315</v>
+        <v>-6.0604966321563154</v>
       </c>
       <c r="I31">
-        <v>1.439505048221633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1.4395050482216329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1392,25 +1413,25 @@
         <v>0.1170667656019386</v>
       </c>
       <c r="C32">
-        <v>0.9499999999999993</v>
+        <v>0.94999999999999929</v>
       </c>
       <c r="D32">
-        <v>3.799999999999997</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="E32">
         <v>3.200000000000006</v>
       </c>
       <c r="F32">
-        <v>-2.480874220397794</v>
+        <v>-2.4808742203977938</v>
       </c>
       <c r="G32">
-        <v>-6.000000000000005</v>
+        <v>-6.0000000000000053</v>
       </c>
       <c r="H32">
         <v>1.499999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1418,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.239999999999995</v>
+        <v>3.2399999999999949</v>
       </c>
       <c r="D33">
-        <v>3.099999999999995</v>
+        <v>3.0999999999999952</v>
       </c>
       <c r="E33">
-        <v>-2.580874220397802</v>
+        <v>-2.5808742203978019</v>
       </c>
       <c r="F33">
         <v>-6</v>
@@ -1433,19 +1454,19 @@
         <v>1.5</v>
       </c>
       <c r="H33">
-        <v>0.01905326533243112</v>
+        <v>1.9053265332431121E-2</v>
       </c>
       <c r="I33">
-        <v>-1.100000000000008</v>
+        <v>-1.1000000000000081</v>
       </c>
       <c r="J33">
-        <v>0.5889999999999986</v>
+        <v>0.58899999999999864</v>
       </c>
       <c r="K33">
-        <v>0.9399966213670581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.93999662136705808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1453,31 +1474,31 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.400000000000006</v>
+        <v>2.4000000000000061</v>
       </c>
       <c r="D34">
-        <v>-0.3808742203977999</v>
+        <v>-0.38087422039779989</v>
       </c>
       <c r="E34">
-        <v>-5.500000000000014</v>
+        <v>-5.5000000000000142</v>
       </c>
       <c r="F34">
-        <v>1.739999999999995</v>
+        <v>1.7399999999999951</v>
       </c>
       <c r="G34">
-        <v>0.01905326533243112</v>
+        <v>1.9053265332431121E-2</v>
       </c>
       <c r="H34">
-        <v>-1.100000000000008</v>
+        <v>-1.1000000000000081</v>
       </c>
       <c r="I34">
-        <v>0.5889999999999986</v>
+        <v>0.58899999999999864</v>
       </c>
       <c r="J34">
-        <v>0.9399966213670581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.93999662136705808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1485,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.1808742203977967</v>
+        <v>-0.18087422039779669</v>
       </c>
       <c r="D35">
         <v>-1.799999999999996</v>
@@ -1494,19 +1515,19 @@
         <v>2.899999999999991</v>
       </c>
       <c r="F35">
-        <v>0.2492719319386225</v>
+        <v>0.24927193193862249</v>
       </c>
       <c r="G35">
-        <v>-0.9737852191201879</v>
+        <v>-0.97378521912018789</v>
       </c>
       <c r="H35">
-        <v>0.606471745326175</v>
+        <v>0.60647174532617498</v>
       </c>
       <c r="I35">
-        <v>0.9261096476221696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.92610964762216963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1514,25 +1535,25 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="D36">
         <v>3.5</v>
       </c>
       <c r="E36">
-        <v>0.1790532653324277</v>
+        <v>0.17905326533242771</v>
       </c>
       <c r="F36">
         <v>-1.04000000000002</v>
       </c>
       <c r="G36">
-        <v>0.6233946884993031</v>
+        <v>0.62339468849930313</v>
       </c>
       <c r="H36">
-        <v>0.8865060824304152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.88650608243041518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1540,34 +1561,34 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.700000000000003</v>
+        <v>3.7000000000000028</v>
       </c>
       <c r="D37">
-        <v>0.4790532653324249</v>
+        <v>0.47905326533242493</v>
       </c>
       <c r="E37">
         <v>-0.8400000000000174</v>
       </c>
       <c r="F37">
-        <v>0.7489999999999952</v>
+        <v>0.74899999999999523</v>
       </c>
       <c r="G37">
-        <v>0.9999966213670461</v>
+        <v>0.99999662136704615</v>
       </c>
       <c r="H37">
-        <v>0.9399999999999977</v>
+        <v>0.93999999999999773</v>
       </c>
       <c r="I37">
-        <v>0.4510000000000076</v>
+        <v>0.45100000000000762</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.07999999999999828</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>7.9999999999998281E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1578,10 +1599,10 @@
         <v>-1.820946734667573</v>
       </c>
       <c r="D38">
-        <v>2.959999999999994</v>
+        <v>2.9599999999999942</v>
       </c>
       <c r="E38">
-        <v>2.599000000000004</v>
+        <v>2.5990000000000042</v>
       </c>
       <c r="F38">
         <v>1.019996621367071</v>
@@ -1593,13 +1614,13 @@
         <v>0.6010000000000133</v>
       </c>
       <c r="I38">
-        <v>0.04999999999999721</v>
+        <v>4.9999999999997213E-2</v>
       </c>
       <c r="J38">
-        <v>0.1299999999999955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.12999999999999551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1607,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.04999999999999694</v>
+        <v>4.9999999999996943E-2</v>
       </c>
       <c r="D39">
-        <v>1.322955701213346</v>
+        <v>1.3229557012133459</v>
       </c>
       <c r="E39">
         <v>1.599996621367054</v>
@@ -1619,16 +1640,16 @@
         <v>1.709999999999994</v>
       </c>
       <c r="G39">
-        <v>1.281000000000006</v>
+        <v>1.2810000000000059</v>
       </c>
       <c r="H39">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="I39">
-        <v>0.2999999999999972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.29999999999999721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1639,22 +1660,22 @@
         <v>1.349000000000004</v>
       </c>
       <c r="D40">
-        <v>1.349996621367055</v>
+        <v>1.3499966213670549</v>
       </c>
       <c r="E40">
         <v>1.439999999999984</v>
       </c>
       <c r="F40">
-        <v>0.8509999999999991</v>
+        <v>0.85099999999999909</v>
       </c>
       <c r="G40">
-        <v>0.3999999999999915</v>
+        <v>0.39999999999999147</v>
       </c>
       <c r="H40">
-        <v>0.230000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.23000000000000401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1662,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.1400033786329402</v>
+        <v>-0.14000337863294021</v>
       </c>
       <c r="D41">
-        <v>-0.6000000000000081</v>
+        <v>-0.60000000000000808</v>
       </c>
       <c r="E41">
-        <v>-0.1490000000000009</v>
+        <v>-0.14900000000000091</v>
       </c>
       <c r="F41">
-        <v>0.04999999999999721</v>
+        <v>4.9999999999997213E-2</v>
       </c>
       <c r="G41">
         <v>0.3799999999999813</v>
@@ -1680,16 +1701,16 @@
         <v>0.5</v>
       </c>
       <c r="I41">
-        <v>0.5999999999999943</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="J41">
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.2799984123704178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.27999841237041778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1697,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.2100999999999971</v>
+        <v>-0.21009999999999709</v>
       </c>
       <c r="D42">
-        <v>-0.07899999999999352</v>
+        <v>-7.899999999999352E-2</v>
       </c>
       <c r="E42">
-        <v>0.3400000000000035</v>
+        <v>0.34000000000000352</v>
       </c>
       <c r="F42">
-        <v>0.4200000000000018</v>
+        <v>0.42000000000000182</v>
       </c>
       <c r="G42">
-        <v>0.3999999999999915</v>
+        <v>0.39999999999999147</v>
       </c>
       <c r="H42">
-        <v>0.2999999999999829</v>
+        <v>0.29999999999998289</v>
       </c>
       <c r="I42">
         <v>0.1999999999999886</v>
       </c>
       <c r="J42">
-        <v>-0.08000158762958157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>-8.0001587629581566E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1735,22 +1756,22 @@
         <v>0.2000000000000029</v>
       </c>
       <c r="E43">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="F43">
-        <v>0.3999999999999915</v>
+        <v>0.39999999999999147</v>
       </c>
       <c r="G43">
-        <v>0.3300000000000125</v>
+        <v>0.33000000000001251</v>
       </c>
       <c r="H43">
         <v>0.1400000000000006</v>
       </c>
       <c r="I43">
-        <v>-0.1200015876295737</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>-0.12000158762957371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1758,25 +1779,25 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.3490000000000038</v>
+        <v>0.34900000000000381</v>
       </c>
       <c r="D44">
-        <v>0.4799999999999898</v>
+        <v>0.47999999999998982</v>
       </c>
       <c r="E44">
         <v>0.5490000000000208</v>
       </c>
       <c r="F44">
-        <v>0.6490000000000151</v>
+        <v>0.64900000000001512</v>
       </c>
       <c r="G44">
-        <v>0.4490000000000123</v>
+        <v>0.44900000000001228</v>
       </c>
       <c r="H44">
         <v>0.1289984123704358</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1787,28 +1808,28 @@
         <v>0.3799999999999813</v>
       </c>
       <c r="D45">
-        <v>0.3000000000000114</v>
+        <v>0.30000000000001142</v>
       </c>
       <c r="E45">
-        <v>0.5999999999999943</v>
+        <v>0.59999999999999432</v>
       </c>
       <c r="F45">
-        <v>0.5150000000000148</v>
+        <v>0.51500000000001478</v>
       </c>
       <c r="G45">
-        <v>0.1799984123704093</v>
+        <v>0.17999841237040931</v>
       </c>
       <c r="H45">
-        <v>0.400002285065284</v>
+        <v>0.40000228506528401</v>
       </c>
       <c r="I45">
-        <v>0.0999965580756878</v>
+        <v>9.9996558075687803E-2</v>
       </c>
       <c r="J45">
-        <v>0.1600000000000107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.16000000000001069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1819,25 +1840,25 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="D46">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="E46">
         <v>0.5</v>
       </c>
       <c r="F46">
-        <v>0.2799984123704178</v>
+        <v>0.27999841237041778</v>
       </c>
       <c r="G46">
-        <v>0.400002285065284</v>
+        <v>0.40000228506528401</v>
       </c>
       <c r="H46">
         <v>0.1999965580757106</v>
       </c>
       <c r="I46">
-        <v>0.2599999999999908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.25999999999999079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1845,25 +1866,25 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.4000000000000057</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="D47">
         <v>0.5</v>
       </c>
       <c r="E47">
-        <v>0.2799984123704178</v>
+        <v>0.27999841237041778</v>
       </c>
       <c r="F47">
-        <v>0.400002285065284</v>
+        <v>0.40000228506528401</v>
       </c>
       <c r="G47">
         <v>0.1999965580757106</v>
       </c>
       <c r="H47">
-        <v>0.2599999999999908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.25999999999999079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1871,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.349000000000018</v>
+        <v>0.34900000000001802</v>
       </c>
       <c r="D48">
-        <v>0.1489984123704318</v>
+        <v>0.14899841237043179</v>
       </c>
       <c r="E48">
-        <v>0.4510021850653061</v>
+        <v>0.45100218506530609</v>
       </c>
       <c r="F48">
-        <v>0.3599965580757072</v>
+        <v>0.35999655807570718</v>
       </c>
       <c r="G48">
-        <v>0.4599999900000142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.45999999000001418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1894,19 +1915,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.02000158762959359</v>
+        <v>-2.000158762959359E-2</v>
       </c>
       <c r="D49">
-        <v>0.400002285065284</v>
+        <v>0.40000228506528401</v>
       </c>
       <c r="E49">
-        <v>0.3999965580756992</v>
+        <v>0.39999655807569923</v>
       </c>
       <c r="F49">
-        <v>0.4599999999999937</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.45999999999999369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1914,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.2000022850652811</v>
+        <v>0.20000228506528109</v>
       </c>
       <c r="D50">
-        <v>0.05999655807569582</v>
+        <v>5.9996558075695823E-2</v>
       </c>
       <c r="E50">
-        <v>0.1400000000000148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.14000000000001481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1931,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.03999655807569982</v>
+        <v>3.9996558075699823E-2</v>
       </c>
       <c r="D51">
-        <v>0.1899999999999978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.18999999999999781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1945,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.06000000000000227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>6.0000000000002267E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/PRIVCON/Data/ifo_err/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED5E430F0B612D4CE74D8F4AF155549CB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2E872D-AFA4-484E-985B-E10D4B0CB80F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,25 +265,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +313,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,19 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,87 +595,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.0307892990731771</v>
+        <v>1.030789299073177</v>
       </c>
       <c r="C2">
-        <v>-6.4765659348495319E-2</v>
+        <v>-0.06476565934849532</v>
       </c>
       <c r="D2">
-        <v>0.88214109082859693</v>
+        <v>0.8821410908285969</v>
       </c>
       <c r="E2">
-        <v>5.8840631279210243E-2</v>
+        <v>0.05884063127921024</v>
       </c>
       <c r="F2">
-        <v>0.61438903804608458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6143890380460846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.75714109082859693</v>
+        <v>0.7571410908285969</v>
       </c>
       <c r="C3">
-        <v>-5.6159368720784697E-2</v>
+        <v>-0.0561593687207847</v>
       </c>
       <c r="D3">
-        <v>0.51438903804607605</v>
+        <v>0.5143890380460761</v>
       </c>
       <c r="E3">
-        <v>-0.21146034799510011</v>
+        <v>-0.2114603479951001</v>
       </c>
       <c r="F3">
-        <v>-0.37455516874575778</v>
+        <v>-0.3745551687457578</v>
       </c>
       <c r="G3">
-        <v>1.0843602806882731</v>
+        <v>1.084360280688273</v>
       </c>
       <c r="H3">
-        <v>0.37573985804748128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3757398580474813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.66438903804608174</v>
+        <v>0.6643890380460817</v>
       </c>
       <c r="C4">
-        <v>3.8539652004885683E-2</v>
+        <v>0.03853965200488568</v>
       </c>
       <c r="D4">
-        <v>-0.34955516874576631</v>
+        <v>-0.3495551687457663</v>
       </c>
       <c r="E4">
-        <v>0.68436028068825294</v>
+        <v>0.6843602806882529</v>
       </c>
       <c r="F4">
         <v>-0.1742601419525158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.49955516874577199</v>
+        <v>-0.499555168745772</v>
       </c>
       <c r="C5">
-        <v>1.2843602806882759</v>
+        <v>1.284360280688276</v>
       </c>
       <c r="D5">
         <v>-0.1742601419525158</v>
       </c>
       <c r="E5">
-        <v>0.32159430017402713</v>
+        <v>0.3215943001740271</v>
       </c>
       <c r="F5">
         <v>-0.9500000000000085</v>
@@ -705,56 +684,56 @@
         <v>-0.5499999999999915</v>
       </c>
       <c r="H5">
-        <v>-0.63491936721165132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.6349193672116513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.32426014195252151</v>
+        <v>-0.3242601419525215</v>
       </c>
       <c r="C6">
-        <v>1.3215943001740129</v>
+        <v>1.321594300174013</v>
       </c>
       <c r="D6">
-        <v>-0.44999999999999429</v>
+        <v>-0.4499999999999943</v>
       </c>
       <c r="E6">
-        <v>-0.19999999999999721</v>
+        <v>-0.1999999999999972</v>
       </c>
       <c r="F6">
-        <v>-0.43491936721164848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.4349193672116485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.30000000000001709</v>
+        <v>-0.3000000000000171</v>
       </c>
       <c r="C7">
         <v>-0.1749999999999915</v>
       </c>
       <c r="D7">
-        <v>-0.48491936721164558</v>
+        <v>-0.4849193672116456</v>
       </c>
       <c r="E7">
-        <v>-0.30000000000000571</v>
+        <v>-0.3000000000000057</v>
       </c>
       <c r="F7">
-        <v>0.74724839678982846</v>
+        <v>0.7472483967898285</v>
       </c>
       <c r="G7">
-        <v>-0.61403687927476369</v>
+        <v>-0.6140368792747637</v>
       </c>
       <c r="H7">
-        <v>0.45124639903423258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4512463990342326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,27 +744,27 @@
         <v>-0.2</v>
       </c>
       <c r="D8">
-        <v>0.89724839678982282</v>
+        <v>0.8972483967898228</v>
       </c>
       <c r="E8">
-        <v>-0.41403687927476651</v>
+        <v>-0.4140368792747665</v>
       </c>
       <c r="F8">
         <v>0.6012463990342326</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.79724839678982273</v>
+        <v>0.7972483967898227</v>
       </c>
       <c r="C9">
-        <v>-0.51403687927476649</v>
+        <v>-0.5140368792747665</v>
       </c>
       <c r="D9">
-        <v>0.50124639903423263</v>
+        <v>0.5012463990342326</v>
       </c>
       <c r="E9">
         <v>-0.1</v>
@@ -797,15 +776,15 @@
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.84032904212236303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.840329042122363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.50124639903423263</v>
+        <v>0.5012463990342326</v>
       </c>
       <c r="C10">
         <v>-0.1</v>
@@ -817,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.64032904212236297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.640329042122363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.74032904212236295</v>
+        <v>0.7403290421223629</v>
       </c>
       <c r="E11">
         <v>-0.4</v>
@@ -843,18 +822,18 @@
         <v>0.3</v>
       </c>
       <c r="H11">
-        <v>0.69635731027406111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6963573102740611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.44032904212236301</v>
+        <v>0.440329042122363</v>
       </c>
       <c r="C12">
-        <v>-0.60000000000000009</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="D12">
         <v>-0.4</v>
@@ -863,10 +842,10 @@
         <v>0.2</v>
       </c>
       <c r="F12">
-        <v>0.59635731027406114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5963573102740611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -877,10 +856,10 @@
         <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.59635731027406114</v>
+        <v>0.5963573102740611</v>
       </c>
       <c r="E13">
-        <v>-0.38735213847308791</v>
+        <v>-0.3873521384730879</v>
       </c>
       <c r="F13">
         <v>0.1947037738205665</v>
@@ -889,87 +868,87 @@
         <v>-0.4267133658511682</v>
       </c>
       <c r="H13">
-        <v>-0.40288756395488862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.4028875639548886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.59635731027406114</v>
+        <v>0.5963573102740611</v>
       </c>
       <c r="C14">
-        <v>-0.28735213847308783</v>
+        <v>-0.2873521384730878</v>
       </c>
       <c r="D14">
-        <v>0.29470377382056651</v>
+        <v>0.2947037738205665</v>
       </c>
       <c r="E14">
-        <v>-0.22671336585116819</v>
+        <v>-0.2267133658511682</v>
       </c>
       <c r="F14">
-        <v>-0.20288756395488861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.2028875639548886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.24370377382057029</v>
+        <v>0.2437037738205703</v>
       </c>
       <c r="C15">
-        <v>-0.28671336585117052</v>
+        <v>-0.2867133658511705</v>
       </c>
       <c r="D15">
-        <v>-0.26288756395489088</v>
+        <v>-0.2628875639548909</v>
       </c>
       <c r="E15">
-        <v>-0.16365371372131679</v>
+        <v>-0.1636537137213168</v>
       </c>
       <c r="F15">
-        <v>0.30730274732178492</v>
+        <v>0.3073027473217849</v>
       </c>
       <c r="G15">
-        <v>-0.13743599182063801</v>
+        <v>-0.137435991820638</v>
       </c>
       <c r="H15">
-        <v>1.7148882243063209E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01714888224306321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.26288756395489088</v>
+        <v>-0.2628875639548909</v>
       </c>
       <c r="C16">
-        <v>-0.25365371372130602</v>
+        <v>-0.253653713721306</v>
       </c>
       <c r="D16">
-        <v>0.21730274732179561</v>
+        <v>0.2173027473217956</v>
       </c>
       <c r="E16">
-        <v>-0.22743599182062721</v>
+        <v>-0.2274359918206272</v>
       </c>
       <c r="F16">
-        <v>-7.2851117756925987E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.07285111775692599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.31730274732177571</v>
+        <v>0.3173027473217757</v>
       </c>
       <c r="C17">
-        <v>-0.17743599182063011</v>
+        <v>-0.1774359918206301</v>
       </c>
       <c r="D17">
-        <v>-2.2851117756928829E-2</v>
+        <v>-0.02285111775692883</v>
       </c>
       <c r="E17">
         <v>-0.1210757917016281</v>
@@ -978,45 +957,45 @@
         <v>0.1053351215706186</v>
       </c>
       <c r="G17">
-        <v>-9.7815461566156725E-2</v>
+        <v>-0.09781546156615673</v>
       </c>
       <c r="H17">
-        <v>0.14384807682199599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.143848076821996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-2.6070440084993152E-3</v>
+        <v>-0.002607044008499315</v>
       </c>
       <c r="C18">
-        <v>5.4296526607771463E-2</v>
+        <v>0.05429652660777146</v>
       </c>
       <c r="D18">
-        <v>0.25533512157062432</v>
+        <v>0.2553351215706243</v>
       </c>
       <c r="E18">
-        <v>2.1334858076186851E-3</v>
+        <v>0.002133485807618685</v>
       </c>
       <c r="F18">
         <v>0.2337986721421714</v>
       </c>
       <c r="G18">
-        <v>9.0529456624523219E-2</v>
+        <v>0.09052945662452322</v>
       </c>
       <c r="H18">
-        <v>-0.54341016801933506</v>
+        <v>-0.5434101680193351</v>
       </c>
       <c r="I18">
-        <v>0.52943022961170527</v>
+        <v>0.5294302296117053</v>
       </c>
       <c r="J18">
-        <v>0.38457554624183388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3845755462418339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,222 +1003,222 @@
         <v>0.1053351215706044</v>
       </c>
       <c r="C19">
-        <v>5.2184538433848959E-2</v>
+        <v>0.05218453843384896</v>
       </c>
       <c r="D19">
-        <v>0.24384807682201881</v>
+        <v>0.2438480768220188</v>
       </c>
       <c r="E19">
-        <v>9.7352059427890991E-2</v>
+        <v>0.09735205942789099</v>
       </c>
       <c r="F19">
-        <v>-0.53798745290001193</v>
+        <v>-0.5379874529000119</v>
       </c>
       <c r="G19">
-        <v>0.53533201319996238</v>
+        <v>0.5353320131999624</v>
       </c>
       <c r="H19">
-        <v>0.39095332649513642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3909533264951364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.24384807682201881</v>
+        <v>0.2438480768220188</v>
       </c>
       <c r="C20">
-        <v>4.7352059427893833E-2</v>
+        <v>0.04735205942789383</v>
       </c>
       <c r="D20">
-        <v>-0.63798745290003467</v>
+        <v>-0.6379874529000347</v>
       </c>
       <c r="E20">
-        <v>0.43533201319993958</v>
+        <v>0.4353320131999396</v>
       </c>
       <c r="F20">
-        <v>0.29095332649511357</v>
+        <v>0.2909533264951136</v>
       </c>
       <c r="G20">
-        <v>-0.14319940513492219</v>
+        <v>-0.1431994051349222</v>
       </c>
       <c r="H20">
-        <v>-5.3208752574960827E-3</v>
+        <v>-0.005320875257496083</v>
       </c>
       <c r="I20">
-        <v>0.59999999999998288</v>
+        <v>0.5999999999999829</v>
       </c>
       <c r="J20">
-        <v>8.4198015579673297E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0841980155796733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.48798745290004319</v>
+        <v>-0.4879874529000432</v>
       </c>
       <c r="C21">
-        <v>0.56033201319996806</v>
+        <v>0.5603320131999681</v>
       </c>
       <c r="D21">
-        <v>0.37095332649512619</v>
+        <v>0.3709533264951262</v>
       </c>
       <c r="E21">
-        <v>-6.319940513490957E-2</v>
+        <v>-0.06319940513490957</v>
       </c>
       <c r="F21">
-        <v>7.4679124742516534E-2</v>
+        <v>0.07467912474251653</v>
       </c>
       <c r="G21">
         <v>0.6799999999999955</v>
       </c>
       <c r="H21">
-        <v>0.16419801557968591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1641980155796859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.39095332649513642</v>
+        <v>0.3909533264951364</v>
       </c>
       <c r="C22">
-        <v>6.800594865083498E-3</v>
+        <v>0.006800594865083498</v>
       </c>
       <c r="D22">
-        <v>0.19467912474250679</v>
+        <v>0.1946791247425068</v>
       </c>
       <c r="E22">
-        <v>0.79999999999998583</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="F22">
-        <v>0.28419801557967622</v>
+        <v>0.2841980155796762</v>
       </c>
       <c r="G22">
-        <v>-0.75000000000001132</v>
+        <v>-0.7500000000000113</v>
       </c>
       <c r="H22">
-        <v>0.35589819663894667</v>
+        <v>0.3558981966389467</v>
       </c>
       <c r="I22">
-        <v>1.7624144596112501E-2</v>
+        <v>0.0176241445961125</v>
       </c>
       <c r="J22">
-        <v>0.43129864644954802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.431298646449548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-4.3199405134899387E-2</v>
+        <v>-0.04319940513489939</v>
       </c>
       <c r="C23">
-        <v>9.467912474252671E-2</v>
+        <v>0.09467912474252671</v>
       </c>
       <c r="D23">
-        <v>0.73999999999999777</v>
+        <v>0.7399999999999978</v>
       </c>
       <c r="E23">
-        <v>0.18419801557969609</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="F23">
-        <v>-0.64999999999998859</v>
+        <v>-0.6499999999999886</v>
       </c>
       <c r="G23">
         <v>0.3258981966389598</v>
       </c>
       <c r="H23">
-        <v>-1.237585540387437E-2</v>
+        <v>-0.01237585540387437</v>
       </c>
       <c r="I23">
-        <v>0.40129864644956109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4012986464495611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>9.467912474252671E-2</v>
+        <v>0.09467912474252671</v>
       </c>
       <c r="C24">
-        <v>0.70000000000000573</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="D24">
-        <v>0.18419801557969609</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="E24">
-        <v>-0.60999999999999654</v>
+        <v>-0.6099999999999965</v>
       </c>
       <c r="F24">
-        <v>0.38589819663894792</v>
+        <v>0.3858981966389479</v>
       </c>
       <c r="G24">
-        <v>-3.2375855403870391E-2</v>
+        <v>-0.03237585540387039</v>
       </c>
       <c r="H24">
-        <v>0.38129864644956513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3812986464495651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.70000000000000573</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="C25">
-        <v>0.18419801557969609</v>
+        <v>0.1841980155796961</v>
       </c>
       <c r="D25">
-        <v>-0.62000000000000166</v>
+        <v>-0.6200000000000017</v>
       </c>
       <c r="E25">
-        <v>0.35589819663894667</v>
+        <v>0.3558981966389467</v>
       </c>
       <c r="F25">
-        <v>-3.2375855403870391E-2</v>
+        <v>-0.03237585540387039</v>
       </c>
       <c r="G25">
-        <v>0.26129864644954642</v>
+        <v>0.2612986464495464</v>
       </c>
       <c r="H25">
-        <v>3.4450000000000052</v>
+        <v>3.445000000000005</v>
       </c>
       <c r="I25">
         <v>11.16206676560194</v>
       </c>
       <c r="J25">
-        <v>-7.0049999999999946</v>
+        <v>-7.004999999999995</v>
       </c>
       <c r="K25">
-        <v>1.0450000000000019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.045000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>8.4198015579690394E-2</v>
+        <v>0.08419801557969039</v>
       </c>
       <c r="C26">
         <v>-0.7</v>
       </c>
       <c r="D26">
-        <v>0.30589819663895812</v>
+        <v>0.3058981966389581</v>
       </c>
       <c r="E26">
-        <v>-3.2375855403876053E-2</v>
+        <v>-0.03237585540387605</v>
       </c>
       <c r="F26">
-        <v>0.28129864644955938</v>
+        <v>0.2812986464495594</v>
       </c>
       <c r="G26">
         <v>3.5</v>
@@ -1254,47 +1233,47 @@
         <v>1.099999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.66000000000000791</v>
+        <v>-0.6600000000000079</v>
       </c>
       <c r="C27">
-        <v>5.8981966389524132E-3</v>
+        <v>0.005898196638952413</v>
       </c>
       <c r="D27">
-        <v>-0.13237585540389321</v>
+        <v>-0.1323758554038932</v>
       </c>
       <c r="E27">
-        <v>0.28129864644954228</v>
+        <v>0.2812986464495423</v>
       </c>
       <c r="F27">
-        <v>3.4999999999999831</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="G27">
-        <v>11.217066765601921</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="H27">
-        <v>-6.9500000000000171</v>
+        <v>-6.950000000000017</v>
       </c>
       <c r="I27">
-        <v>1.0999999999999801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.09999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.39410180336104189</v>
+        <v>-0.3941018033610419</v>
       </c>
       <c r="C28">
-        <v>-0.13237585540387611</v>
+        <v>-0.1323758554038761</v>
       </c>
       <c r="D28">
-        <v>0.28129864644955938</v>
+        <v>0.2812986464495594</v>
       </c>
       <c r="E28">
         <v>3.5</v>
@@ -1309,12 +1288,12 @@
         <v>1.099999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.33237585540391018</v>
+        <v>-0.3323758554039102</v>
       </c>
       <c r="C29">
         <v>0.1812986464495622</v>
@@ -1323,10 +1302,10 @@
         <v>3.400000000000003</v>
       </c>
       <c r="E29">
-        <v>11.217066765601921</v>
+        <v>11.21706676560192</v>
       </c>
       <c r="F29">
-        <v>-6.9500000000000171</v>
+        <v>-6.950000000000017</v>
       </c>
       <c r="G29">
         <v>1.159999999999997</v>
@@ -1335,16 +1314,16 @@
         <v>2.760000000000006</v>
       </c>
       <c r="I29">
-        <v>-3.1808742203978109</v>
+        <v>-3.180874220397811</v>
       </c>
       <c r="J29">
-        <v>-6.1000000000000227</v>
+        <v>-6.100000000000023</v>
       </c>
       <c r="K29">
         <v>1.399999999999977</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1352,60 +1331,60 @@
         <v>0.1212986464495459</v>
       </c>
       <c r="C30">
-        <v>3.4999999999999831</v>
+        <v>3.499999999999983</v>
       </c>
       <c r="D30">
-        <v>11.166066765601951</v>
+        <v>11.16606676560195</v>
       </c>
       <c r="E30">
-        <v>-7.0009999999999906</v>
+        <v>-7.000999999999991</v>
       </c>
       <c r="F30">
-        <v>1.0999999999999801</v>
+        <v>1.09999999999998</v>
       </c>
       <c r="G30">
-        <v>2.9400000000000119</v>
+        <v>2.940000000000012</v>
       </c>
       <c r="H30">
-        <v>-3.0408742203977961</v>
+        <v>-3.040874220397796</v>
       </c>
       <c r="I30">
-        <v>-6.0600000000000023</v>
+        <v>-6.060000000000002</v>
       </c>
       <c r="J30">
-        <v>1.4399999999999979</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.439999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3.1000000000000338</v>
+        <v>3.100000000000034</v>
       </c>
       <c r="C31">
-        <v>3.9170667656019389</v>
+        <v>3.917066765601939</v>
       </c>
       <c r="D31">
-        <v>-3.9500000000000028</v>
+        <v>-3.950000000000003</v>
       </c>
       <c r="E31">
         <v>3.199999999999974</v>
       </c>
       <c r="F31">
-        <v>4.8000000000000256</v>
+        <v>4.800000000000026</v>
       </c>
       <c r="G31">
-        <v>-1.8808742203978139</v>
+        <v>-1.880874220397814</v>
       </c>
       <c r="H31">
-        <v>-6.0604966321563154</v>
+        <v>-6.060496632156315</v>
       </c>
       <c r="I31">
-        <v>1.4395050482216329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.439505048221633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1413,25 +1392,25 @@
         <v>0.1170667656019386</v>
       </c>
       <c r="C32">
-        <v>0.94999999999999929</v>
+        <v>0.9499999999999993</v>
       </c>
       <c r="D32">
-        <v>3.7999999999999972</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="E32">
         <v>3.200000000000006</v>
       </c>
       <c r="F32">
-        <v>-2.4808742203977938</v>
+        <v>-2.480874220397794</v>
       </c>
       <c r="G32">
-        <v>-6.0000000000000053</v>
+        <v>-6.000000000000005</v>
       </c>
       <c r="H32">
         <v>1.499999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1439,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.2399999999999949</v>
+        <v>3.239999999999995</v>
       </c>
       <c r="D33">
-        <v>3.0999999999999952</v>
+        <v>3.099999999999995</v>
       </c>
       <c r="E33">
-        <v>-2.5808742203978019</v>
+        <v>-2.580874220397802</v>
       </c>
       <c r="F33">
         <v>-6</v>
@@ -1454,19 +1433,19 @@
         <v>1.5</v>
       </c>
       <c r="H33">
-        <v>1.9053265332431121E-2</v>
+        <v>0.01905326533243112</v>
       </c>
       <c r="I33">
-        <v>-1.1000000000000081</v>
+        <v>-1.100000000000008</v>
       </c>
       <c r="J33">
-        <v>0.58899999999999864</v>
+        <v>0.5889999999999986</v>
       </c>
       <c r="K33">
-        <v>0.93999662136705808</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9399966213670581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1474,31 +1453,31 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.4000000000000061</v>
+        <v>2.400000000000006</v>
       </c>
       <c r="D34">
-        <v>-0.38087422039779989</v>
+        <v>-0.3808742203977999</v>
       </c>
       <c r="E34">
-        <v>-5.5000000000000142</v>
+        <v>-5.500000000000014</v>
       </c>
       <c r="F34">
-        <v>1.7399999999999951</v>
+        <v>1.739999999999995</v>
       </c>
       <c r="G34">
-        <v>1.9053265332431121E-2</v>
+        <v>0.01905326533243112</v>
       </c>
       <c r="H34">
-        <v>-1.1000000000000081</v>
+        <v>-1.100000000000008</v>
       </c>
       <c r="I34">
-        <v>0.58899999999999864</v>
+        <v>0.5889999999999986</v>
       </c>
       <c r="J34">
-        <v>0.93999662136705808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9399966213670581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1506,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.18087422039779669</v>
+        <v>-0.1808742203977967</v>
       </c>
       <c r="D35">
         <v>-1.799999999999996</v>
@@ -1515,19 +1494,19 @@
         <v>2.899999999999991</v>
       </c>
       <c r="F35">
-        <v>0.24927193193862249</v>
+        <v>0.2492719319386225</v>
       </c>
       <c r="G35">
-        <v>-0.97378521912018789</v>
+        <v>-0.9737852191201879</v>
       </c>
       <c r="H35">
-        <v>0.60647174532617498</v>
+        <v>0.606471745326175</v>
       </c>
       <c r="I35">
-        <v>0.92610964762216963</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9261096476221696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1535,25 +1514,25 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.29999999999998289</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="D36">
         <v>3.5</v>
       </c>
       <c r="E36">
-        <v>0.17905326533242771</v>
+        <v>0.1790532653324277</v>
       </c>
       <c r="F36">
         <v>-1.04000000000002</v>
       </c>
       <c r="G36">
-        <v>0.62339468849930313</v>
+        <v>0.6233946884993031</v>
       </c>
       <c r="H36">
-        <v>0.88650608243041518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8865060824304152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1561,34 +1540,34 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.7000000000000028</v>
+        <v>3.700000000000003</v>
       </c>
       <c r="D37">
-        <v>0.47905326533242493</v>
+        <v>0.4790532653324249</v>
       </c>
       <c r="E37">
         <v>-0.8400000000000174</v>
       </c>
       <c r="F37">
-        <v>0.74899999999999523</v>
+        <v>0.7489999999999952</v>
       </c>
       <c r="G37">
-        <v>0.99999662136704615</v>
+        <v>0.9999966213670461</v>
       </c>
       <c r="H37">
-        <v>0.93999999999999773</v>
+        <v>0.9399999999999977</v>
       </c>
       <c r="I37">
-        <v>0.45100000000000762</v>
+        <v>0.4510000000000076</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>7.9999999999998281E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.07999999999999828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1599,10 +1578,10 @@
         <v>-1.820946734667573</v>
       </c>
       <c r="D38">
-        <v>2.9599999999999942</v>
+        <v>2.959999999999994</v>
       </c>
       <c r="E38">
-        <v>2.5990000000000042</v>
+        <v>2.599000000000004</v>
       </c>
       <c r="F38">
         <v>1.019996621367071</v>
@@ -1614,13 +1593,13 @@
         <v>0.6010000000000133</v>
       </c>
       <c r="I38">
-        <v>4.9999999999997213E-2</v>
+        <v>0.04999999999999721</v>
       </c>
       <c r="J38">
-        <v>0.12999999999999551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1299999999999955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1628,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4.9999999999996943E-2</v>
+        <v>0.04999999999999694</v>
       </c>
       <c r="D39">
-        <v>1.3229557012133459</v>
+        <v>1.322955701213346</v>
       </c>
       <c r="E39">
         <v>1.599996621367054</v>
@@ -1640,16 +1619,16 @@
         <v>1.709999999999994</v>
       </c>
       <c r="G39">
-        <v>1.2810000000000059</v>
+        <v>1.281000000000006</v>
       </c>
       <c r="H39">
-        <v>0.47999999999998982</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="I39">
-        <v>0.29999999999999721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2999999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1660,22 +1639,22 @@
         <v>1.349000000000004</v>
       </c>
       <c r="D40">
-        <v>1.3499966213670549</v>
+        <v>1.349996621367055</v>
       </c>
       <c r="E40">
         <v>1.439999999999984</v>
       </c>
       <c r="F40">
-        <v>0.85099999999999909</v>
+        <v>0.8509999999999991</v>
       </c>
       <c r="G40">
-        <v>0.39999999999999147</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="H40">
-        <v>0.23000000000000401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.230000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1683,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.14000337863294021</v>
+        <v>-0.1400033786329402</v>
       </c>
       <c r="D41">
-        <v>-0.60000000000000808</v>
+        <v>-0.6000000000000081</v>
       </c>
       <c r="E41">
-        <v>-0.14900000000000091</v>
+        <v>-0.1490000000000009</v>
       </c>
       <c r="F41">
-        <v>4.9999999999997213E-2</v>
+        <v>0.04999999999999721</v>
       </c>
       <c r="G41">
         <v>0.3799999999999813</v>
@@ -1701,16 +1680,16 @@
         <v>0.5</v>
       </c>
       <c r="I41">
-        <v>0.59999999999999432</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="J41">
         <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.27999841237041778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2799984123704178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1718,31 +1697,31 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.21009999999999709</v>
+        <v>-0.2100999999999971</v>
       </c>
       <c r="D42">
-        <v>-7.899999999999352E-2</v>
+        <v>-0.07899999999999352</v>
       </c>
       <c r="E42">
-        <v>0.34000000000000352</v>
+        <v>0.3400000000000035</v>
       </c>
       <c r="F42">
-        <v>0.42000000000000182</v>
+        <v>0.4200000000000018</v>
       </c>
       <c r="G42">
-        <v>0.39999999999999147</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="H42">
-        <v>0.29999999999998289</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="I42">
         <v>0.1999999999999886</v>
       </c>
       <c r="J42">
-        <v>-8.0001587629581566E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.08000158762958157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1756,22 +1735,22 @@
         <v>0.2000000000000029</v>
       </c>
       <c r="E43">
-        <v>0.47999999999998982</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="F43">
-        <v>0.39999999999999147</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="G43">
-        <v>0.33000000000001251</v>
+        <v>0.3300000000000125</v>
       </c>
       <c r="H43">
         <v>0.1400000000000006</v>
       </c>
       <c r="I43">
-        <v>-0.12000158762957371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1200015876295737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1779,25 +1758,25 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.34900000000000381</v>
+        <v>0.3490000000000038</v>
       </c>
       <c r="D44">
-        <v>0.47999999999998982</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="E44">
         <v>0.5490000000000208</v>
       </c>
       <c r="F44">
-        <v>0.64900000000001512</v>
+        <v>0.6490000000000151</v>
       </c>
       <c r="G44">
-        <v>0.44900000000001228</v>
+        <v>0.4490000000000123</v>
       </c>
       <c r="H44">
         <v>0.1289984123704358</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1808,28 +1787,28 @@
         <v>0.3799999999999813</v>
       </c>
       <c r="D45">
-        <v>0.30000000000001142</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="E45">
-        <v>0.59999999999999432</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="F45">
-        <v>0.51500000000001478</v>
+        <v>0.5150000000000148</v>
       </c>
       <c r="G45">
-        <v>0.17999841237040931</v>
+        <v>0.1799984123704093</v>
       </c>
       <c r="H45">
-        <v>0.40000228506528401</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="I45">
-        <v>9.9996558075687803E-2</v>
+        <v>0.0999965580756878</v>
       </c>
       <c r="J45">
-        <v>0.16000000000001069</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1600000000000107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1840,25 +1819,25 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="D46">
-        <v>0.40000000000000568</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="E46">
         <v>0.5</v>
       </c>
       <c r="F46">
-        <v>0.27999841237041778</v>
+        <v>0.2799984123704178</v>
       </c>
       <c r="G46">
-        <v>0.40000228506528401</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="H46">
         <v>0.1999965580757106</v>
       </c>
       <c r="I46">
-        <v>0.25999999999999079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2599999999999908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1866,25 +1845,25 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.40000000000000568</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D47">
         <v>0.5</v>
       </c>
       <c r="E47">
-        <v>0.27999841237041778</v>
+        <v>0.2799984123704178</v>
       </c>
       <c r="F47">
-        <v>0.40000228506528401</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="G47">
         <v>0.1999965580757106</v>
       </c>
       <c r="H47">
-        <v>0.25999999999999079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2599999999999908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1892,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.34900000000001802</v>
+        <v>0.349000000000018</v>
       </c>
       <c r="D48">
-        <v>0.14899841237043179</v>
+        <v>0.1489984123704318</v>
       </c>
       <c r="E48">
-        <v>0.45100218506530609</v>
+        <v>0.4510021850653061</v>
       </c>
       <c r="F48">
-        <v>0.35999655807570718</v>
+        <v>0.3599965580757072</v>
       </c>
       <c r="G48">
-        <v>0.45999999000001418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4599999900000142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1915,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>-2.000158762959359E-2</v>
+        <v>-0.02000158762959359</v>
       </c>
       <c r="D49">
-        <v>0.40000228506528401</v>
+        <v>0.400002285065284</v>
       </c>
       <c r="E49">
-        <v>0.39999655807569923</v>
+        <v>0.3999965580756992</v>
       </c>
       <c r="F49">
-        <v>0.45999999999999369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4599999999999937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1935,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.20000228506528109</v>
+        <v>0.2000022850652811</v>
       </c>
       <c r="D50">
-        <v>5.9996558075695823E-2</v>
+        <v>0.05999655807569582</v>
       </c>
       <c r="E50">
-        <v>0.14000000000001481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1400000000000148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1952,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>3.9996558075699823E-2</v>
+        <v>0.03999655807569982</v>
       </c>
       <c r="D51">
-        <v>0.18999999999999781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1899999999999978</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1966,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>6.0000000000002267E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.06000000000000227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>11.16206676560194</v>
       </c>
       <c r="J25">
-        <v>-7.004999999999995</v>
+        <v>-10.57102434548657</v>
       </c>
       <c r="K25">
-        <v>1.045000000000002</v>
+        <v>3.574792626865744</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>11.21706676560194</v>
       </c>
       <c r="I26">
-        <v>-6.95</v>
+        <v>-10.51602434548657</v>
       </c>
       <c r="J26">
-        <v>1.099999999999997</v>
+        <v>3.629792626865739</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>11.21706676560192</v>
       </c>
       <c r="H27">
-        <v>-6.950000000000017</v>
+        <v>-10.51602434548659</v>
       </c>
       <c r="I27">
-        <v>1.09999999999998</v>
+        <v>3.629792626865722</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>11.21706676560194</v>
       </c>
       <c r="G28">
-        <v>-6.95</v>
+        <v>-10.51602434548657</v>
       </c>
       <c r="H28">
-        <v>1.099999999999997</v>
+        <v>3.629792626865739</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>11.21706676560192</v>
       </c>
       <c r="F29">
-        <v>-6.950000000000017</v>
+        <v>-10.51602434548659</v>
       </c>
       <c r="G29">
-        <v>1.159999999999997</v>
+        <v>3.689792626865739</v>
       </c>
       <c r="H29">
-        <v>2.760000000000006</v>
+        <v>5.716794673020033</v>
       </c>
       <c r="I29">
-        <v>-3.180874220397811</v>
+        <v>-2.932891992481572</v>
       </c>
       <c r="J29">
-        <v>-6.100000000000023</v>
+        <v>-5.907106464233138</v>
       </c>
       <c r="K29">
-        <v>1.399999999999977</v>
+        <v>2.050717317831413</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>11.16606676560195</v>
       </c>
       <c r="E30">
-        <v>-7.000999999999991</v>
+        <v>-10.56702434548656</v>
       </c>
       <c r="F30">
-        <v>1.09999999999998</v>
+        <v>3.629792626865722</v>
       </c>
       <c r="G30">
-        <v>2.940000000000012</v>
+        <v>5.89679467302004</v>
       </c>
       <c r="H30">
-        <v>-3.040874220397796</v>
+        <v>-2.792891992481557</v>
       </c>
       <c r="I30">
-        <v>-6.060000000000002</v>
+        <v>-5.867106464233117</v>
       </c>
       <c r="J30">
-        <v>1.439999999999998</v>
+        <v>2.090717317831433</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>3.917066765601939</v>
       </c>
       <c r="D31">
-        <v>-3.950000000000003</v>
+        <v>-7.516024345486572</v>
       </c>
       <c r="E31">
-        <v>3.199999999999974</v>
+        <v>5.729792626865716</v>
       </c>
       <c r="F31">
-        <v>4.800000000000026</v>
+        <v>7.756794673020053</v>
       </c>
       <c r="G31">
-        <v>-1.880874220397814</v>
+        <v>-1.632891992481575</v>
       </c>
       <c r="H31">
-        <v>-6.060496632156315</v>
+        <v>-5.867603096389431</v>
       </c>
       <c r="I31">
-        <v>1.439505048221633</v>
+        <v>2.090222366053069</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>0.1170667656019386</v>
       </c>
       <c r="C32">
-        <v>0.9499999999999993</v>
+        <v>-2.61602434548657</v>
       </c>
       <c r="D32">
-        <v>3.799999999999997</v>
+        <v>6.329792626865739</v>
       </c>
       <c r="E32">
-        <v>3.200000000000006</v>
+        <v>6.156794673020033</v>
       </c>
       <c r="F32">
-        <v>-2.480874220397794</v>
+        <v>-2.232891992481555</v>
       </c>
       <c r="G32">
-        <v>-6.000000000000005</v>
+        <v>-5.80710646423312</v>
       </c>
       <c r="H32">
-        <v>1.499999999999994</v>
+        <v>2.15071731783143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-3.56602434548657</v>
       </c>
       <c r="C33">
-        <v>3.239999999999995</v>
+        <v>5.769792626865737</v>
       </c>
       <c r="D33">
-        <v>3.099999999999995</v>
+        <v>6.056794673020022</v>
       </c>
       <c r="E33">
-        <v>-2.580874220397802</v>
+        <v>-2.332891992481564</v>
       </c>
       <c r="F33">
-        <v>-6</v>
+        <v>-5.807106464233115</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
+        <v>2.150717317831436</v>
       </c>
       <c r="H33">
-        <v>0.01905326533243112</v>
+        <v>0.5746947653272656</v>
       </c>
       <c r="I33">
-        <v>-1.100000000000008</v>
+        <v>-0.3780328061469476</v>
       </c>
       <c r="J33">
-        <v>0.5889999999999986</v>
+        <v>-0.5979284922632784</v>
       </c>
       <c r="K33">
-        <v>0.9399966213670581</v>
+        <v>1.443932912058642</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2.529792626865742</v>
       </c>
       <c r="C34">
-        <v>2.400000000000006</v>
+        <v>5.356794673020033</v>
       </c>
       <c r="D34">
-        <v>-0.3808742203977999</v>
+        <v>-0.1328919924815612</v>
       </c>
       <c r="E34">
-        <v>-5.500000000000014</v>
+        <v>-5.307106464233129</v>
       </c>
       <c r="F34">
-        <v>1.739999999999995</v>
+        <v>2.39071731783143</v>
       </c>
       <c r="G34">
-        <v>0.01905326533243112</v>
+        <v>0.5746947653272656</v>
       </c>
       <c r="H34">
-        <v>-1.100000000000008</v>
+        <v>-0.3780328061469476</v>
       </c>
       <c r="I34">
-        <v>0.5889999999999986</v>
+        <v>-0.5979284922632784</v>
       </c>
       <c r="J34">
-        <v>0.9399966213670581</v>
+        <v>1.443932912058642</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.956794673020027</v>
       </c>
       <c r="C35">
-        <v>-0.1808742203977967</v>
+        <v>0.06710800751844204</v>
       </c>
       <c r="D35">
-        <v>-1.799999999999996</v>
+        <v>-1.607106464233111</v>
       </c>
       <c r="E35">
-        <v>2.899999999999991</v>
+        <v>3.550717317831427</v>
       </c>
       <c r="F35">
-        <v>0.2492719319386225</v>
+        <v>0.804913431933457</v>
       </c>
       <c r="G35">
-        <v>-0.9737852191201879</v>
+        <v>-0.2518180252671272</v>
       </c>
       <c r="H35">
-        <v>0.606471745326175</v>
+        <v>-0.580456746937102</v>
       </c>
       <c r="I35">
-        <v>0.9261096476221696</v>
+        <v>1.430045938313753</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.2479822279162387</v>
       </c>
       <c r="C36">
-        <v>0.2999999999999829</v>
+        <v>0.4928935357668678</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>4.150717317831436</v>
       </c>
       <c r="E36">
-        <v>0.1790532653324277</v>
+        <v>0.7346947653272622</v>
       </c>
       <c r="F36">
-        <v>-1.04000000000002</v>
+        <v>-0.3180328061469595</v>
       </c>
       <c r="G36">
-        <v>0.6233946884993031</v>
+        <v>-0.5635338037639739</v>
       </c>
       <c r="H36">
-        <v>0.8865060824304152</v>
+        <v>1.390442373121999</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.1928935357668848</v>
       </c>
       <c r="C37">
-        <v>3.700000000000003</v>
+        <v>4.350717317831439</v>
       </c>
       <c r="D37">
-        <v>0.4790532653324249</v>
+        <v>1.034694765327259</v>
       </c>
       <c r="E37">
-        <v>-0.8400000000000174</v>
+        <v>-0.1180328061469567</v>
       </c>
       <c r="F37">
-        <v>0.7489999999999952</v>
+        <v>-0.4379284922632818</v>
       </c>
       <c r="G37">
-        <v>0.9999966213670461</v>
+        <v>1.50393291205863</v>
       </c>
       <c r="H37">
-        <v>0.9399999999999977</v>
+        <v>1.429861316022425</v>
       </c>
       <c r="I37">
-        <v>0.4510000000000076</v>
+        <v>0.1526454189713746</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.4656763841019966</v>
       </c>
       <c r="K37">
-        <v>0.07999999999999828</v>
+        <v>-0.03673872975578271</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.6507173178314358</v>
       </c>
       <c r="C38">
-        <v>-1.820946734667573</v>
+        <v>-1.265305234672738</v>
       </c>
       <c r="D38">
-        <v>2.959999999999994</v>
+        <v>3.681967193853055</v>
       </c>
       <c r="E38">
-        <v>2.599000000000004</v>
+        <v>1.412071507736727</v>
       </c>
       <c r="F38">
-        <v>1.019996621367071</v>
+        <v>1.523932912058654</v>
       </c>
       <c r="G38">
-        <v>1.090000000000003</v>
+        <v>1.579861316022431</v>
       </c>
       <c r="H38">
-        <v>0.6010000000000133</v>
+        <v>0.3026454189713803</v>
       </c>
       <c r="I38">
-        <v>0.04999999999999721</v>
+        <v>0.5156763841019938</v>
       </c>
       <c r="J38">
-        <v>0.1299999999999955</v>
+        <v>0.0132612702442145</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.5556414999948345</v>
       </c>
       <c r="C39">
-        <v>0.04999999999999694</v>
+        <v>0.7719671938530577</v>
       </c>
       <c r="D39">
-        <v>1.322955701213346</v>
+        <v>0.1360272089500689</v>
       </c>
       <c r="E39">
-        <v>1.599996621367054</v>
+        <v>2.103932912058638</v>
       </c>
       <c r="F39">
-        <v>1.709999999999994</v>
+        <v>2.199861316022421</v>
       </c>
       <c r="G39">
-        <v>1.281000000000006</v>
+        <v>0.9826454189713727</v>
       </c>
       <c r="H39">
-        <v>0.4799999999999898</v>
+        <v>0.9456763841019864</v>
       </c>
       <c r="I39">
-        <v>0.2999999999999972</v>
+        <v>0.1832612702442162</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.7219671938530607</v>
       </c>
       <c r="C40">
-        <v>1.349000000000004</v>
+        <v>0.162071507736727</v>
       </c>
       <c r="D40">
-        <v>1.349996621367055</v>
+        <v>1.853932912058638</v>
       </c>
       <c r="E40">
-        <v>1.439999999999984</v>
+        <v>1.929861316022411</v>
       </c>
       <c r="F40">
-        <v>0.8509999999999991</v>
+        <v>0.5526454189713661</v>
       </c>
       <c r="G40">
-        <v>0.3999999999999915</v>
+        <v>0.8656763841019881</v>
       </c>
       <c r="H40">
-        <v>0.230000000000004</v>
+        <v>0.113261270244223</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1.186928492263277</v>
       </c>
       <c r="C41">
-        <v>-0.1400033786329402</v>
+        <v>0.3639329120586434</v>
       </c>
       <c r="D41">
-        <v>-0.6000000000000081</v>
+        <v>-0.1101386839775809</v>
       </c>
       <c r="E41">
-        <v>-0.1490000000000009</v>
+        <v>-0.4473545810286339</v>
       </c>
       <c r="F41">
-        <v>0.04999999999999721</v>
+        <v>0.5156763841019938</v>
       </c>
       <c r="G41">
-        <v>0.3799999999999813</v>
+        <v>0.2632612702442003</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>1.014894517653033</v>
       </c>
       <c r="I41">
-        <v>0.5999999999999943</v>
+        <v>0.8219948986110523</v>
       </c>
       <c r="J41">
-        <v>0.5</v>
+        <v>0.3112534500261574</v>
       </c>
       <c r="K41">
-        <v>0.2799984123704178</v>
+        <v>0.5166541826233555</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.5039362906915836</v>
       </c>
       <c r="C42">
-        <v>-0.2100999999999971</v>
+        <v>0.2797613160224302</v>
       </c>
       <c r="D42">
-        <v>-0.07899999999999352</v>
+        <v>-0.3773545810286265</v>
       </c>
       <c r="E42">
-        <v>0.3400000000000035</v>
+        <v>0.805676384102</v>
       </c>
       <c r="F42">
-        <v>0.4200000000000018</v>
+        <v>0.3032612702442208</v>
       </c>
       <c r="G42">
-        <v>0.3999999999999915</v>
+        <v>0.9148945176530248</v>
       </c>
       <c r="H42">
-        <v>0.2999999999999829</v>
+        <v>0.5219948986110409</v>
       </c>
       <c r="I42">
-        <v>0.1999999999999886</v>
+        <v>0.01125345002614597</v>
       </c>
       <c r="J42">
-        <v>-0.08000158762958157</v>
+        <v>0.1566541826233561</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.4898613160224272</v>
       </c>
       <c r="C43">
-        <v>0.1910000000000025</v>
+        <v>-0.1073545810286305</v>
       </c>
       <c r="D43">
-        <v>0.2000000000000029</v>
+        <v>0.6656763841019995</v>
       </c>
       <c r="E43">
-        <v>0.4799999999999898</v>
+        <v>0.3632612702442088</v>
       </c>
       <c r="F43">
-        <v>0.3999999999999915</v>
+        <v>0.9148945176530248</v>
       </c>
       <c r="G43">
-        <v>0.3300000000000125</v>
+        <v>0.5519948986110705</v>
       </c>
       <c r="H43">
-        <v>0.1400000000000006</v>
+        <v>-0.04874654997384201</v>
       </c>
       <c r="I43">
-        <v>-0.1200015876295737</v>
+        <v>0.116654182623364</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.298354581028633</v>
       </c>
       <c r="C44">
-        <v>0.3490000000000038</v>
+        <v>0.8146763841020004</v>
       </c>
       <c r="D44">
-        <v>0.4799999999999898</v>
+        <v>0.3632612702442088</v>
       </c>
       <c r="E44">
-        <v>0.5490000000000208</v>
+        <v>1.063894517653054</v>
       </c>
       <c r="F44">
-        <v>0.6490000000000151</v>
+        <v>0.8709948986110732</v>
       </c>
       <c r="G44">
-        <v>0.4490000000000123</v>
+        <v>0.2602534500261697</v>
       </c>
       <c r="H44">
-        <v>0.1289984123704358</v>
+        <v>0.3656541826233735</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.4656763841019966</v>
       </c>
       <c r="C45">
-        <v>0.3799999999999813</v>
+        <v>0.2632612702442003</v>
       </c>
       <c r="D45">
-        <v>0.3000000000000114</v>
+        <v>0.8148945176530447</v>
       </c>
       <c r="E45">
-        <v>0.5999999999999943</v>
+        <v>0.8219948986110523</v>
       </c>
       <c r="F45">
-        <v>0.5150000000000148</v>
+        <v>0.3262534500261722</v>
       </c>
       <c r="G45">
-        <v>0.1799984123704093</v>
+        <v>0.416654182623347</v>
       </c>
       <c r="H45">
-        <v>0.400002285065284</v>
+        <v>0.01016824066003608</v>
       </c>
       <c r="I45">
-        <v>0.0999965580756878</v>
-      </c>
-      <c r="J45">
-        <v>0.1600000000000107</v>
+        <v>0.2452723979283746</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.116738729755781</v>
       </c>
       <c r="C46">
-        <v>0.1999999999999886</v>
+        <v>0.7148945176530219</v>
       </c>
       <c r="D46">
-        <v>0.4000000000000057</v>
+        <v>0.6219948986110637</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>0.3112534500261574</v>
       </c>
       <c r="F46">
-        <v>0.2799984123704178</v>
+        <v>0.5166541826233555</v>
       </c>
       <c r="G46">
-        <v>0.400002285065284</v>
+        <v>0.01016824066003608</v>
       </c>
       <c r="H46">
-        <v>0.1999965580757106</v>
-      </c>
-      <c r="I46">
-        <v>0.2599999999999908</v>
+        <v>0.3452723979283974</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.5148945176530333</v>
       </c>
       <c r="C47">
-        <v>0.4000000000000057</v>
+        <v>0.6219948986110637</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.3112534500261574</v>
       </c>
       <c r="E47">
-        <v>0.2799984123704178</v>
+        <v>0.5166541826233555</v>
       </c>
       <c r="F47">
-        <v>0.400002285065284</v>
+        <v>0.01016824066003608</v>
       </c>
       <c r="G47">
-        <v>0.1999965580757106</v>
-      </c>
-      <c r="H47">
-        <v>0.2599999999999908</v>
+        <v>0.3452723979283974</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.221994898611058</v>
       </c>
       <c r="C48">
-        <v>0.349000000000018</v>
+        <v>0.1602534500261754</v>
       </c>
       <c r="D48">
-        <v>0.1489984123704318</v>
+        <v>0.3856541826233695</v>
       </c>
       <c r="E48">
-        <v>0.4510021850653061</v>
+        <v>0.06116814066005816</v>
       </c>
       <c r="F48">
-        <v>0.3599965580757072</v>
-      </c>
-      <c r="G48">
-        <v>0.4599999900000142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.505272397928394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.1887465499738426</v>
       </c>
       <c r="C49">
-        <v>-0.02000158762959359</v>
+        <v>0.2166541826233441</v>
       </c>
       <c r="D49">
-        <v>0.400002285065284</v>
+        <v>0.01016824066003608</v>
       </c>
       <c r="E49">
-        <v>0.3999965580756992</v>
-      </c>
-      <c r="F49">
-        <v>0.4599999999999937</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.545272397928386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.2366557702529377</v>
       </c>
       <c r="C50">
-        <v>0.2000022850652811</v>
+        <v>-0.1898317593399668</v>
       </c>
       <c r="D50">
-        <v>0.05999655807569582</v>
-      </c>
-      <c r="E50">
-        <v>0.1400000000000148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.2052723979283826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.3898340444052479</v>
       </c>
       <c r="C51">
-        <v>0.03999655807569982</v>
-      </c>
-      <c r="D51">
-        <v>0.1899999999999978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.1852723979283866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0.06000000000000227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.1452758398526868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
